--- a/quality_life_index.xlsx
+++ b/quality_life_index.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bea/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5A3327A-098A-B348-8EEB-001F0982006F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF57CAC-1B76-45D0-B8DA-83D465265DDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{8EBEC31D-93C8-5440-91C5-1617D3674BF5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{8EBEC31D-93C8-5440-91C5-1617D3674BF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
@@ -667,9 +667,6 @@
     <t>64.33</t>
   </si>
   <si>
-    <t>Bosnia And Herzegovina</t>
-  </si>
-  <si>
     <t>146.70</t>
   </si>
   <si>
@@ -4256,6 +4253,9 @@
   </si>
   <si>
     <t>40.36</t>
+  </si>
+  <si>
+    <t>Bosnia</t>
   </si>
 </sst>
 </file>
@@ -4332,7 +4332,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4630,13 +4630,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE395FB4-4829-C444-85CC-58BFE9A61358}">
   <dimension ref="A1:M160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4674,7 +4674,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>0</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>43</v>
@@ -4715,7 +4715,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>180</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>181</v>
@@ -4756,7 +4756,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -4764,40 +4764,40 @@
         <v>2016</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -4805,40 +4805,40 @@
         <v>2016</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>588</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="I5" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="J5" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>140</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>141</v>
@@ -4879,7 +4879,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -4890,7 +4890,7 @@
         <v>160</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>161</v>
@@ -4920,7 +4920,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>23</v>
@@ -4961,7 +4961,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -4972,7 +4972,7 @@
         <v>90</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>91</v>
@@ -5002,7 +5002,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -5013,7 +5013,7 @@
         <v>130</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>131</v>
@@ -5043,7 +5043,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -5054,7 +5054,7 @@
         <v>32</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>33</v>
@@ -5084,7 +5084,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>170</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>171</v>
@@ -5125,7 +5125,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -5133,40 +5133,40 @@
         <v>2016</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="E13" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>597</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="G13" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -5177,7 +5177,7 @@
         <v>150</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>151</v>
@@ -5207,7 +5207,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -5218,7 +5218,7 @@
         <v>190</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>191</v>
@@ -5248,7 +5248,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -5256,40 +5256,40 @@
         <v>2016</v>
       </c>
       <c r="C16" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="E16" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="G16" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="H16" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="I16" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="J16" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="K16" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="M16" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>52</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>43</v>
@@ -5330,7 +5330,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -5338,40 +5338,40 @@
         <v>2016</v>
       </c>
       <c r="C18" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="H18" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="M18" s="2" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>61</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>62</v>
@@ -5412,7 +5412,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>200</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>201</v>
@@ -5453,7 +5453,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -5464,7 +5464,7 @@
         <v>100</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>101</v>
@@ -5494,7 +5494,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="3">
         <v>20</v>
       </c>
@@ -5502,40 +5502,40 @@
         <v>2016</v>
       </c>
       <c r="C22" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>608</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="L22" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="M22" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="M22" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>21</v>
       </c>
@@ -5543,40 +5543,40 @@
         <v>2016</v>
       </c>
       <c r="C23" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>609</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="H23" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="I23" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="J23" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="K23" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="L23" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="M23" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="M23" s="2" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>22</v>
       </c>
@@ -5584,40 +5584,40 @@
         <v>2016</v>
       </c>
       <c r="C24" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>610</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="H24" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="J24" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="L24" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="M24" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="M24" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="3">
         <v>23</v>
       </c>
@@ -5628,7 +5628,7 @@
         <v>120</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>121</v>
@@ -5658,7 +5658,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>24</v>
       </c>
@@ -5669,7 +5669,7 @@
         <v>71</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>72</v>
@@ -5699,7 +5699,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="3">
         <v>25</v>
       </c>
@@ -5710,7 +5710,7 @@
         <v>81</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>82</v>
@@ -5740,7 +5740,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" s="3">
         <v>26</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>12</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>13</v>
@@ -5781,7 +5781,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" s="3">
         <v>27</v>
       </c>
@@ -5789,40 +5789,40 @@
         <v>2016</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>616</v>
-      </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G29" s="2" t="s">
+      <c r="H29" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="H29" s="2" t="s">
+      <c r="I29" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="I29" s="2" t="s">
+      <c r="J29" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="J29" s="2" t="s">
+      <c r="K29" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="K29" s="2" t="s">
+      <c r="L29" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="L29" s="2" t="s">
+      <c r="M29" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="M29" s="2" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="3">
         <v>28</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>110</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>111</v>
@@ -5863,7 +5863,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" s="3">
         <v>29</v>
       </c>
@@ -5874,37 +5874,37 @@
         <v>42</v>
       </c>
       <c r="D31" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E31" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G31" s="2" t="s">
+      <c r="H31" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="H31" s="2" t="s">
+      <c r="I31" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="I31" s="2" t="s">
+      <c r="J31" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="J31" s="2" t="s">
+      <c r="K31" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K31" s="2" t="s">
+      <c r="L31" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="M31" s="2" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" s="3">
         <v>30</v>
       </c>
@@ -5912,40 +5912,40 @@
         <v>2017</v>
       </c>
       <c r="C32" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="G32" s="2" t="s">
+      <c r="H32" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="H32" s="2" t="s">
+      <c r="I32" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="I32" s="2" t="s">
+      <c r="J32" s="2" t="s">
         <v>553</v>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="K32" s="2" t="s">
         <v>554</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="L32" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="M32" s="2" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" s="3">
         <v>31</v>
       </c>
@@ -5956,37 +5956,37 @@
         <v>180</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E33" s="2" t="s">
+        <v>443</v>
+      </c>
+      <c r="F33" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="G33" s="2" t="s">
+      <c r="H33" s="2" t="s">
         <v>446</v>
       </c>
-      <c r="H33" s="2" t="s">
+      <c r="I33" s="2" t="s">
         <v>447</v>
       </c>
-      <c r="I33" s="2" t="s">
+      <c r="J33" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="J33" s="2" t="s">
+      <c r="K33" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="L33" s="2" t="s">
+      <c r="M33" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="M33" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="3">
         <v>32</v>
       </c>
@@ -5994,40 +5994,40 @@
         <v>2017</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>210</v>
+        <v>1406</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E34" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="F34" s="2" t="s">
         <v>506</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="G34" s="2" t="s">
+      <c r="H34" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="H34" s="2" t="s">
+      <c r="I34" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="I34" s="2" t="s">
+      <c r="J34" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="K34" s="2" t="s">
         <v>511</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="L34" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="L34" s="2" t="s">
+      <c r="M34" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="M34" s="2" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>33</v>
       </c>
@@ -6035,40 +6035,40 @@
         <v>2017</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E35" s="2" t="s">
+        <v>523</v>
+      </c>
+      <c r="F35" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>525</v>
       </c>
-      <c r="G35" s="2" t="s">
+      <c r="H35" s="2" t="s">
         <v>526</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>527</v>
       </c>
       <c r="I35" s="2" t="s">
         <v>197</v>
       </c>
       <c r="J35" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="K35" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="L35" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="M35" s="2" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="3">
         <v>34</v>
       </c>
@@ -6079,37 +6079,37 @@
         <v>140</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E36" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>410</v>
       </c>
-      <c r="G36" s="2" t="s">
+      <c r="H36" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="H36" s="2" t="s">
+      <c r="I36" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="I36" s="2" t="s">
+      <c r="J36" s="2" t="s">
         <v>413</v>
       </c>
-      <c r="J36" s="2" t="s">
+      <c r="K36" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="K36" s="2" t="s">
+      <c r="L36" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="L36" s="2" t="s">
+      <c r="M36" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="M36" s="2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
         <v>35</v>
       </c>
@@ -6120,37 +6120,37 @@
         <v>160</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E37" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="F37" s="2" t="s">
         <v>436</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="G37" s="2" t="s">
+      <c r="H37" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="H37" s="2" t="s">
+      <c r="I37" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="I37" s="2" t="s">
+      <c r="J37" s="2" t="s">
         <v>440</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>441</v>
       </c>
       <c r="K37" s="2" t="s">
         <v>137</v>
       </c>
       <c r="L37" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="M37" s="2" t="s">
         <v>442</v>
       </c>
-      <c r="M37" s="2" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" s="3">
         <v>36</v>
       </c>
@@ -6161,37 +6161,37 @@
         <v>22</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G38" s="2" t="s">
+      <c r="H38" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="H38" s="2" t="s">
+      <c r="I38" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="I38" s="2" t="s">
+      <c r="J38" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="J38" s="2" t="s">
+      <c r="K38" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="L38" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="L38" s="2" t="s">
+      <c r="M38" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>37</v>
       </c>
@@ -6199,40 +6199,40 @@
         <v>2017</v>
       </c>
       <c r="C39" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="D39" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G39" s="2" t="s">
+      <c r="H39" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="H39" s="2" t="s">
+      <c r="I39" s="2" t="s">
         <v>403</v>
       </c>
-      <c r="I39" s="2" t="s">
+      <c r="J39" s="2" t="s">
         <v>404</v>
       </c>
-      <c r="J39" s="2" t="s">
+      <c r="K39" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="K39" s="2" t="s">
+      <c r="L39" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="L39" s="2" t="s">
+      <c r="M39" s="2" t="s">
         <v>407</v>
       </c>
-      <c r="M39" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>38</v>
       </c>
@@ -6243,37 +6243,37 @@
         <v>90</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E40" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="H40" s="2" t="s">
+      <c r="I40" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="I40" s="2" t="s">
+      <c r="J40" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="J40" s="2" t="s">
+      <c r="K40" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="L40" s="2" t="s">
+      <c r="M40" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="M40" s="2" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>39</v>
       </c>
@@ -6284,37 +6284,37 @@
         <v>130</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E41" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="F41" s="2" t="s">
         <v>453</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="H41" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="H41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="I41" s="2" t="s">
+      <c r="J41" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="J41" s="2" t="s">
+      <c r="K41" s="2" t="s">
         <v>458</v>
       </c>
-      <c r="K41" s="2" t="s">
+      <c r="L41" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="L41" s="2" t="s">
+      <c r="M41" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="M41" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="3">
         <v>40</v>
       </c>
@@ -6325,37 +6325,37 @@
         <v>32</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E42" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="F42" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="H42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="I42" s="2" t="s">
+      <c r="J42" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="J42" s="2" t="s">
+      <c r="K42" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="K42" s="2" t="s">
+      <c r="L42" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="L42" s="2" t="s">
+      <c r="M42" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="M42" s="2" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" s="3">
         <v>41</v>
       </c>
@@ -6366,37 +6366,37 @@
         <v>170</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E43" s="2" t="s">
+        <v>479</v>
+      </c>
+      <c r="F43" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43" s="2" t="s">
         <v>482</v>
       </c>
-      <c r="H43" s="2" t="s">
+      <c r="I43" s="2" t="s">
         <v>483</v>
       </c>
-      <c r="I43" s="2" t="s">
+      <c r="J43" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="K43" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="L43" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="K43" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="L43" s="2" t="s">
+      <c r="M43" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="M43" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
         <v>42</v>
       </c>
@@ -6404,40 +6404,40 @@
         <v>2017</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>515</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>516</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="H44" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="H44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="I44" s="2" t="s">
+      <c r="J44" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="J44" s="2" t="s">
+      <c r="K44" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="K44" s="2" t="s">
+      <c r="L44" s="2" t="s">
         <v>521</v>
       </c>
-      <c r="L44" s="2" t="s">
+      <c r="M44" s="2" t="s">
         <v>522</v>
       </c>
-      <c r="M44" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" s="3">
         <v>43</v>
       </c>
@@ -6448,37 +6448,37 @@
         <v>150</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E45" s="2" t="s">
+        <v>417</v>
+      </c>
+      <c r="F45" s="2" t="s">
         <v>418</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="H45" s="2" t="s">
         <v>420</v>
       </c>
-      <c r="H45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="I45" s="2" t="s">
+      <c r="J45" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="J45" s="2" t="s">
+      <c r="K45" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="K45" s="2" t="s">
+      <c r="L45" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="L45" s="2" t="s">
+      <c r="M45" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="M45" s="2" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="3">
         <v>44</v>
       </c>
@@ -6489,37 +6489,37 @@
         <v>190</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E46" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="F46" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>498</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="H46" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="H46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="I46" s="2" t="s">
+      <c r="J46" s="2" t="s">
         <v>501</v>
       </c>
-      <c r="J46" s="2" t="s">
+      <c r="K46" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="L46" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="M46" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="M46" s="2" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>45</v>
       </c>
@@ -6527,40 +6527,40 @@
         <v>2017</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E47" s="2" t="s">
+        <v>538</v>
+      </c>
+      <c r="F47" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="F47" s="2" t="s">
+      <c r="G47" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="H47" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="H47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>542</v>
       </c>
-      <c r="I47" s="2" t="s">
+      <c r="J47" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="J47" s="2" t="s">
+      <c r="K47" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="L47" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="M47" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="M47" s="2" t="s">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" s="3">
         <v>46</v>
       </c>
@@ -6571,37 +6571,37 @@
         <v>52</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E48" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="F48" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="H48" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="H48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="I48" s="2" t="s">
+      <c r="J48" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="J48" s="2" t="s">
+      <c r="K48" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="K48" s="2" t="s">
+      <c r="L48" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="M48" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="M48" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
         <v>47</v>
       </c>
@@ -6609,40 +6609,40 @@
         <v>2017</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E49" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="F49" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="H49" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="H49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="J49" s="2" t="s">
+      <c r="K49" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="L49" s="2" t="s">
         <v>563</v>
       </c>
-      <c r="K49" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="L49" s="2" t="s">
+      <c r="M49" s="2" t="s">
         <v>564</v>
       </c>
-      <c r="M49" s="2" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
         <v>48</v>
       </c>
@@ -6653,37 +6653,37 @@
         <v>61</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E50" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="G50" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="H50" s="2" t="s">
         <v>429</v>
       </c>
-      <c r="H50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="I50" s="2" t="s">
+      <c r="J50" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="K50" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="L50" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="M50" s="2" t="s">
         <v>434</v>
       </c>
-      <c r="M50" s="2" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" s="3">
         <v>49</v>
       </c>
@@ -6694,37 +6694,37 @@
         <v>200</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E51" s="2" t="s">
+        <v>470</v>
+      </c>
+      <c r="F51" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="G51" s="2" t="s">
         <v>472</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="H51" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="H51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="I51" s="2" t="s">
+      <c r="J51" s="2" t="s">
         <v>475</v>
       </c>
-      <c r="J51" s="2" t="s">
+      <c r="K51" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="K51" s="2" t="s">
+      <c r="L51" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="M51" s="2" t="s">
         <v>478</v>
       </c>
-      <c r="M51" s="2" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" s="3">
         <v>50</v>
       </c>
@@ -6735,37 +6735,37 @@
         <v>100</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E52" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="F52" s="2" t="s">
         <v>345</v>
       </c>
-      <c r="F52" s="2" t="s">
+      <c r="G52" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="H52" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="H52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="I52" s="2" t="s">
+      <c r="J52" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="J52" s="2" t="s">
+      <c r="K52" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="K52" s="2" t="s">
+      <c r="L52" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="M52" s="2" t="s">
         <v>352</v>
       </c>
-      <c r="M52" s="2" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
         <v>51</v>
       </c>
@@ -6773,40 +6773,40 @@
         <v>2017</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E53" s="2" t="s">
+        <v>487</v>
+      </c>
+      <c r="F53" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="I53" s="2" t="s">
+      <c r="J53" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="J53" s="2" t="s">
+      <c r="K53" s="2" t="s">
         <v>493</v>
       </c>
-      <c r="K53" s="2" t="s">
+      <c r="L53" s="2" t="s">
         <v>494</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="M53" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="M53" s="2" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" s="3">
         <v>52</v>
       </c>
@@ -6814,40 +6814,40 @@
         <v>2017</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E54" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="H54" s="2" t="s">
         <v>577</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="I54" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="I54" s="2" t="s">
+      <c r="J54" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="K54" s="2" t="s">
         <v>580</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="L54" s="2" t="s">
         <v>581</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="M54" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="M54" s="2" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>53</v>
       </c>
@@ -6855,40 +6855,40 @@
         <v>2017</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E55" s="2" t="s">
+        <v>531</v>
+      </c>
+      <c r="F55" s="2" t="s">
         <v>532</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="H55" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="I55" s="2" t="s">
         <v>535</v>
       </c>
-      <c r="I55" s="2" t="s">
-        <v>536</v>
-      </c>
       <c r="J55" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K55" s="2" t="s">
         <v>30</v>
       </c>
       <c r="L55" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="M55" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="M55" s="2" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>54</v>
       </c>
@@ -6896,40 +6896,40 @@
         <v>2017</v>
       </c>
       <c r="C56" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="E56" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>463</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="G56" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="G56" s="2" t="s">
-        <v>438</v>
-      </c>
-      <c r="H56" s="2" t="s">
+      <c r="I56" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="I56" s="2" t="s">
+      <c r="J56" s="2" t="s">
         <v>466</v>
       </c>
-      <c r="J56" s="2" t="s">
+      <c r="K56" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="K56" s="2" t="s">
+      <c r="L56" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="M56" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="M56" s="2" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" s="3">
         <v>55</v>
       </c>
@@ -6940,37 +6940,37 @@
         <v>120</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E57" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="F57" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="G57" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="H57" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="I57" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="I57" s="2" t="s">
+      <c r="J57" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="J57" s="2" t="s">
+      <c r="K57" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="K57" s="2" t="s">
+      <c r="L57" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="M57" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="M57" s="2" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
         <v>56</v>
       </c>
@@ -6981,37 +6981,37 @@
         <v>71</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E58" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F58" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="G58" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="H58" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="I58" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="I58" s="2" t="s">
+      <c r="J58" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="J58" s="2" t="s">
+      <c r="K58" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="K58" s="2" t="s">
+      <c r="L58" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="M58" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="M58" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
         <v>57</v>
       </c>
@@ -7022,37 +7022,37 @@
         <v>81</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E59" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="F59" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="G59" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="H59" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="I59" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="I59" s="2" t="s">
+      <c r="J59" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="J59" s="2" t="s">
+      <c r="K59" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="L59" s="2" t="s">
         <v>396</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="M59" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="M59" s="2" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" s="3">
         <v>58</v>
       </c>
@@ -7063,37 +7063,37 @@
         <v>12</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E60" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="G60" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="H60" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="I60" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="I60" s="2" t="s">
+      <c r="J60" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="J60" s="2" t="s">
+      <c r="K60" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="K60" s="2" t="s">
+      <c r="L60" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="M60" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="M60" s="2" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" s="3">
         <v>59</v>
       </c>
@@ -7101,40 +7101,40 @@
         <v>2017</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E61" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="F61" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="G61" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="H61" s="2" t="s">
         <v>568</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="I61" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="I61" s="2" t="s">
+      <c r="J61" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="J61" s="2" t="s">
+      <c r="K61" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="K61" s="2" t="s">
+      <c r="L61" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="M61" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="M61" s="2" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" s="3">
         <v>60</v>
       </c>
@@ -7145,37 +7145,37 @@
         <v>110</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E62" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="F62" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="G62" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="H62" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="I62" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="I62" s="2" t="s">
+      <c r="J62" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="K62" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="L62" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="M62" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="M62" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>61</v>
       </c>
@@ -7186,37 +7186,37 @@
         <v>42</v>
       </c>
       <c r="D63" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E63" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="F63" s="2" t="s">
         <v>653</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="G63" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="H63" s="2" t="s">
         <v>655</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="I63" s="2" t="s">
         <v>656</v>
       </c>
-      <c r="I63" s="2" t="s">
+      <c r="J63" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="K63" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="K63" s="2" t="s">
-        <v>659</v>
-      </c>
       <c r="L63" s="2" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
         <v>62</v>
       </c>
@@ -7227,37 +7227,37 @@
         <v>180</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E64" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="F64" s="2" t="s">
         <v>734</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="G64" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="H64" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="I64" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="I64" s="2" t="s">
+      <c r="J64" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="J64" s="2" t="s">
+      <c r="K64" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="K64" s="2" t="s">
+      <c r="L64" s="2" t="s">
+        <v>450</v>
+      </c>
+      <c r="M64" s="2" t="s">
         <v>740</v>
       </c>
-      <c r="L64" s="2" t="s">
-        <v>451</v>
-      </c>
-      <c r="M64" s="2" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="3">
         <v>63</v>
       </c>
@@ -7265,40 +7265,40 @@
         <v>2018</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>210</v>
+        <v>1406</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E65" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="F65" s="2" t="s">
         <v>834</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="G65" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="H65" s="2" t="s">
         <v>836</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="I65" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="I65" s="2" t="s">
+      <c r="J65" s="2" t="s">
         <v>838</v>
       </c>
-      <c r="J65" s="2" t="s">
+      <c r="K65" s="2" t="s">
         <v>839</v>
       </c>
-      <c r="K65" s="2" t="s">
+      <c r="L65" s="2" t="s">
         <v>840</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="M65" s="2" t="s">
         <v>841</v>
       </c>
-      <c r="M65" s="2" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
         <v>64</v>
       </c>
@@ -7306,40 +7306,40 @@
         <v>2018</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E66" s="2" t="s">
+        <v>824</v>
+      </c>
+      <c r="F66" s="2" t="s">
         <v>825</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="G66" s="2" t="s">
         <v>826</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="H66" s="2" t="s">
         <v>827</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="I66" s="2" t="s">
         <v>828</v>
       </c>
-      <c r="I66" s="2" t="s">
+      <c r="J66" s="2" t="s">
         <v>829</v>
       </c>
-      <c r="J66" s="2" t="s">
+      <c r="K66" s="2" t="s">
         <v>830</v>
       </c>
-      <c r="K66" s="2" t="s">
+      <c r="L66" s="2" t="s">
         <v>831</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="M66" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="M66" s="2" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
         <v>65</v>
       </c>
@@ -7350,37 +7350,37 @@
         <v>140</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E67" s="2" t="s">
+        <v>749</v>
+      </c>
+      <c r="F67" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="G67" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="H67" s="2" t="s">
         <v>752</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="I67" s="2" t="s">
         <v>753</v>
       </c>
-      <c r="I67" s="2" t="s">
+      <c r="J67" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="J67" s="2" t="s">
+      <c r="K67" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="L67" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="M67" s="2" t="s">
         <v>756</v>
       </c>
-      <c r="L67" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="3">
         <v>66</v>
       </c>
@@ -7391,37 +7391,37 @@
         <v>160</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E68" s="2" t="s">
+        <v>757</v>
+      </c>
+      <c r="F68" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="G68" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="H68" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="I68" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="H68" s="2" t="s">
-        <v>448</v>
-      </c>
-      <c r="I68" s="2" t="s">
+      <c r="J68" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="J68" s="2" t="s">
+      <c r="K68" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="K68" s="2" t="s">
+      <c r="L68" s="2" t="s">
         <v>763</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="M68" s="2" t="s">
         <v>764</v>
       </c>
-      <c r="M68" s="2" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
         <v>67</v>
       </c>
@@ -7432,37 +7432,37 @@
         <v>22</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E69" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="F69" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="G69" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="H69" s="2" t="s">
         <v>620</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="I69" s="2" t="s">
         <v>621</v>
       </c>
-      <c r="I69" s="2" t="s">
+      <c r="J69" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="J69" s="2" t="s">
+      <c r="K69" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="K69" s="2" t="s">
+      <c r="L69" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="M69" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="M69" s="2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>68</v>
       </c>
@@ -7470,40 +7470,40 @@
         <v>2018</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E70" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="F70" s="2" t="s">
         <v>676</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="G70" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="H70" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="I70" s="2" t="s">
         <v>679</v>
       </c>
-      <c r="I70" s="2" t="s">
+      <c r="J70" s="2" t="s">
         <v>680</v>
       </c>
-      <c r="J70" s="2" t="s">
+      <c r="K70" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="L70" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="K70" s="2" t="s">
-        <v>642</v>
-      </c>
-      <c r="L70" s="2" t="s">
+      <c r="M70" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="M70" s="2" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
         <v>69</v>
       </c>
@@ -7514,37 +7514,37 @@
         <v>90</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E71" s="2" t="s">
+        <v>626</v>
+      </c>
+      <c r="F71" s="2" t="s">
         <v>627</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="G71" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="H71" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="I71" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="I71" s="2" t="s">
+      <c r="J71" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="J71" s="2" t="s">
+      <c r="K71" s="2" t="s">
         <v>632</v>
       </c>
-      <c r="K71" s="2" t="s">
+      <c r="L71" s="2" t="s">
         <v>633</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="M71" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="M71" s="2" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="3">
         <v>70</v>
       </c>
@@ -7555,37 +7555,37 @@
         <v>130</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="F72" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="G72" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>155</v>
       </c>
       <c r="I72" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="J72" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="K72" s="2" t="s">
         <v>730</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="L72" s="2" t="s">
         <v>731</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="M72" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="M72" s="2" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="3">
         <v>71</v>
       </c>
@@ -7596,37 +7596,37 @@
         <v>32</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E73" s="2" t="s">
+        <v>659</v>
+      </c>
+      <c r="F73" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="G73" s="2" t="s">
         <v>661</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>662</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>185</v>
       </c>
       <c r="I73" s="2" t="s">
+        <v>662</v>
+      </c>
+      <c r="J73" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="J73" s="2" t="s">
+      <c r="K73" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="K73" s="2" t="s">
+      <c r="L73" s="2" t="s">
         <v>665</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="M73" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="M73" s="2" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="3">
         <v>72</v>
       </c>
@@ -7637,37 +7637,37 @@
         <v>170</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E74" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="F74" s="2" t="s">
         <v>807</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="G74" s="2" t="s">
         <v>808</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="H74" s="2" t="s">
         <v>809</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="I74" s="2" t="s">
         <v>810</v>
       </c>
-      <c r="I74" s="2" t="s">
+      <c r="J74" s="2" t="s">
         <v>811</v>
       </c>
-      <c r="J74" s="2" t="s">
+      <c r="K74" s="2" t="s">
         <v>812</v>
       </c>
-      <c r="K74" s="2" t="s">
+      <c r="L74" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="M74" s="2" t="s">
         <v>814</v>
       </c>
-      <c r="M74" s="2" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
         <v>73</v>
       </c>
@@ -7675,40 +7675,40 @@
         <v>2018</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E75" s="2" t="s">
+        <v>815</v>
+      </c>
+      <c r="F75" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="G75" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="H75" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="I75" s="2" t="s">
         <v>819</v>
       </c>
-      <c r="I75" s="2" t="s">
+      <c r="J75" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="K75" s="2" t="s">
         <v>821</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="L75" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="M75" s="2" t="s">
         <v>823</v>
       </c>
-      <c r="M75" s="2" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="3">
         <v>74</v>
       </c>
@@ -7719,37 +7719,37 @@
         <v>150</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E76" s="2" t="s">
+        <v>741</v>
+      </c>
+      <c r="F76" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="G76" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="H76" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="I76" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="I76" s="2" t="s">
+      <c r="J76" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="J76" s="2" t="s">
+      <c r="K76" s="2" t="s">
         <v>747</v>
       </c>
-      <c r="K76" s="2" t="s">
+      <c r="L76" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="M76" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="L76" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="M76" s="2" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
         <v>75</v>
       </c>
@@ -7760,37 +7760,37 @@
         <v>190</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F77" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="G77" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="H77" s="2" t="s">
         <v>793</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="I77" s="2" t="s">
         <v>794</v>
       </c>
-      <c r="I77" s="2" t="s">
+      <c r="J77" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="K77" s="2" t="s">
         <v>795</v>
       </c>
-      <c r="J77" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="K77" s="2" t="s">
+      <c r="L77" s="2" t="s">
+        <v>490</v>
+      </c>
+      <c r="M77" s="2" t="s">
         <v>796</v>
       </c>
-      <c r="L77" s="2" t="s">
-        <v>491</v>
-      </c>
-      <c r="M77" s="2" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>76</v>
       </c>
@@ -7798,40 +7798,40 @@
         <v>2018</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E78" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="F78" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="G78" s="2" t="s">
         <v>776</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="H78" s="2" t="s">
         <v>777</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="I78" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="J78" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="I78" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="J78" s="2" t="s">
+      <c r="K78" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="K78" s="2" t="s">
+      <c r="L78" s="2" t="s">
         <v>780</v>
       </c>
-      <c r="L78" s="2" t="s">
+      <c r="M78" s="2" t="s">
         <v>781</v>
       </c>
-      <c r="M78" s="2" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="3">
         <v>77</v>
       </c>
@@ -7842,37 +7842,37 @@
         <v>52</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E79" s="2" t="s">
+        <v>635</v>
+      </c>
+      <c r="F79" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="G79" s="2" t="s">
         <v>637</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="H79" s="2" t="s">
         <v>638</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="I79" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="I79" s="2" t="s">
+      <c r="J79" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="J79" s="2" t="s">
+      <c r="K79" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="K79" s="2" t="s">
+      <c r="L79" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="M79" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="M79" s="2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>78</v>
       </c>
@@ -7883,37 +7883,37 @@
         <v>61</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E80" s="2" t="s">
+        <v>683</v>
+      </c>
+      <c r="F80" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="G80" s="2" t="s">
         <v>685</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="H80" s="2" t="s">
         <v>686</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="I80" s="2" t="s">
         <v>687</v>
       </c>
-      <c r="I80" s="2" t="s">
+      <c r="J80" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="K80" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="L80" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="M80" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="3">
         <v>79</v>
       </c>
@@ -7924,37 +7924,37 @@
         <v>200</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E81" s="2" t="s">
+        <v>782</v>
+      </c>
+      <c r="F81" s="2" t="s">
         <v>783</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="G81" s="2" t="s">
         <v>784</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="H81" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="I81" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="I81" s="2" t="s">
+      <c r="J81" s="2" t="s">
         <v>787</v>
       </c>
-      <c r="J81" s="2" t="s">
+      <c r="K81" s="2" t="s">
         <v>788</v>
       </c>
-      <c r="K81" s="2" t="s">
+      <c r="L81" s="2" t="s">
         <v>789</v>
       </c>
-      <c r="L81" s="2" t="s">
+      <c r="M81" s="2" t="s">
         <v>790</v>
       </c>
-      <c r="M81" s="2" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>80</v>
       </c>
@@ -7965,37 +7965,37 @@
         <v>100</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E82" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="F82" s="2" t="s">
         <v>717</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="G82" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="H82" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="I82" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="I82" s="2" t="s">
+      <c r="J82" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="J82" s="2" t="s">
+      <c r="K82" s="2" t="s">
         <v>722</v>
       </c>
-      <c r="K82" s="2" t="s">
+      <c r="L82" s="2" t="s">
         <v>723</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="M82" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="M82" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="3">
         <v>81</v>
       </c>
@@ -8003,40 +8003,40 @@
         <v>2018</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E83" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>798</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="G83" s="2" t="s">
         <v>799</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="H83" s="2" t="s">
         <v>800</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="I83" s="2" t="s">
         <v>801</v>
       </c>
-      <c r="I83" s="2" t="s">
+      <c r="J83" s="2" t="s">
         <v>802</v>
       </c>
-      <c r="J83" s="2" t="s">
+      <c r="K83" s="2" t="s">
         <v>803</v>
       </c>
-      <c r="K83" s="2" t="s">
+      <c r="L83" s="2" t="s">
         <v>804</v>
       </c>
-      <c r="L83" s="2" t="s">
+      <c r="M83" s="2" t="s">
         <v>805</v>
       </c>
-      <c r="M83" s="2" t="s">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
         <v>82</v>
       </c>
@@ -8044,40 +8044,40 @@
         <v>2018</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E84" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="F84" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="G84" s="2" t="s">
         <v>853</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="H84" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="I84" s="2" t="s">
         <v>855</v>
       </c>
-      <c r="I84" s="2" t="s">
+      <c r="J84" s="2" t="s">
         <v>856</v>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="K84" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="L84" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="M84" s="2" t="s">
         <v>858</v>
       </c>
-      <c r="L84" s="2" t="s">
-        <v>703</v>
-      </c>
-      <c r="M84" s="2" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="3">
         <v>83</v>
       </c>
@@ -8085,40 +8085,40 @@
         <v>2018</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E85" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="F85" s="2" t="s">
         <v>843</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="G85" s="2" t="s">
         <v>844</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="H85" s="2" t="s">
         <v>845</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="I85" s="2" t="s">
         <v>846</v>
       </c>
-      <c r="I85" s="2" t="s">
+      <c r="J85" s="2" t="s">
         <v>847</v>
       </c>
-      <c r="J85" s="2" t="s">
+      <c r="K85" s="2" t="s">
         <v>848</v>
       </c>
-      <c r="K85" s="2" t="s">
+      <c r="L85" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="L85" s="2" t="s">
+      <c r="M85" s="2" t="s">
         <v>850</v>
       </c>
-      <c r="M85" s="2" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>84</v>
       </c>
@@ -8126,40 +8126,40 @@
         <v>2018</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="G86" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="H86" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="I86" s="2" t="s">
         <v>769</v>
       </c>
-      <c r="I86" s="2" t="s">
+      <c r="J86" s="2" t="s">
         <v>770</v>
       </c>
-      <c r="J86" s="2" t="s">
+      <c r="K86" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="K86" s="2" t="s">
+      <c r="L86" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="L86" s="2" t="s">
+      <c r="M86" s="2" t="s">
         <v>773</v>
       </c>
-      <c r="M86" s="2" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="3">
         <v>85</v>
       </c>
@@ -8170,37 +8170,37 @@
         <v>120</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E87" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="F87" s="2" t="s">
         <v>693</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="G87" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="H87" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="I87" s="2" t="s">
         <v>696</v>
       </c>
-      <c r="I87" s="2" t="s">
+      <c r="J87" s="2" t="s">
         <v>697</v>
       </c>
-      <c r="J87" s="2" t="s">
+      <c r="K87" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="K87" s="2" t="s">
+      <c r="L87" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="L87" s="2" t="s">
-        <v>700</v>
-      </c>
       <c r="M87" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
         <v>86</v>
       </c>
@@ -8211,37 +8211,37 @@
         <v>71</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E88" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="G88" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="H88" s="2" t="s">
         <v>703</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="I88" s="2" t="s">
         <v>704</v>
       </c>
-      <c r="I88" s="2" t="s">
+      <c r="J88" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="J88" s="2" t="s">
+      <c r="K88" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="K88" s="2" t="s">
+      <c r="L88" s="2" t="s">
         <v>707</v>
       </c>
-      <c r="L88" s="2" t="s">
+      <c r="M88" s="2" t="s">
         <v>708</v>
       </c>
-      <c r="M88" s="2" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
         <v>87</v>
       </c>
@@ -8252,37 +8252,37 @@
         <v>81</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E89" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="F89" s="2" t="s">
         <v>668</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="G89" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="H89" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="I89" s="2" t="s">
+        <v>500</v>
+      </c>
+      <c r="J89" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="I89" s="2" t="s">
-        <v>501</v>
-      </c>
-      <c r="J89" s="2" t="s">
+      <c r="K89" s="2" t="s">
         <v>672</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="L89" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="L89" s="2" t="s">
+      <c r="M89" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="M89" s="2" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
         <v>88</v>
       </c>
@@ -8293,37 +8293,37 @@
         <v>12</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E90" s="2" t="s">
+        <v>644</v>
+      </c>
+      <c r="F90" s="2" t="s">
         <v>645</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="G90" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="I90" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="I90" s="2" t="s">
+      <c r="J90" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K90" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="J90" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="K90" s="2" t="s">
+      <c r="L90" s="2" t="s">
         <v>650</v>
       </c>
-      <c r="L90" s="2" t="s">
+      <c r="M90" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="M90" s="2" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
         <v>89</v>
       </c>
@@ -8331,40 +8331,40 @@
         <v>2018</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E91" s="2" t="s">
+        <v>859</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>860</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="G91" s="2" t="s">
+      <c r="H91" s="2" t="s">
         <v>861</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="I91" s="2" t="s">
         <v>862</v>
-      </c>
-      <c r="I91" s="2" t="s">
-        <v>863</v>
       </c>
       <c r="J91" s="2" t="s">
         <v>69</v>
       </c>
       <c r="K91" s="2" t="s">
+        <v>863</v>
+      </c>
+      <c r="L91" s="2" t="s">
         <v>864</v>
       </c>
-      <c r="L91" s="2" t="s">
+      <c r="M91" s="2" t="s">
         <v>865</v>
       </c>
-      <c r="M91" s="2" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
         <v>90</v>
       </c>
@@ -8375,37 +8375,37 @@
         <v>110</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E92" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="F92" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="G92" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="G92" s="2" t="s">
-        <v>712</v>
-      </c>
       <c r="H92" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="I92" s="2" t="s">
         <v>36</v>
       </c>
       <c r="J92" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="K92" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="L92" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="L92" s="2" t="s">
+      <c r="M92" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="M92" s="2" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="3">
         <v>91</v>
       </c>
@@ -8416,37 +8416,37 @@
         <v>42</v>
       </c>
       <c r="D93" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E93" s="2" t="s">
+        <v>892</v>
+      </c>
+      <c r="F93" s="2" t="s">
         <v>893</v>
       </c>
-      <c r="F93" s="2" t="s">
+      <c r="G93" s="2" t="s">
         <v>894</v>
       </c>
-      <c r="G93" s="2" t="s">
+      <c r="H93" s="2" t="s">
         <v>895</v>
       </c>
-      <c r="H93" s="2" t="s">
+      <c r="I93" s="2" t="s">
         <v>896</v>
       </c>
-      <c r="I93" s="2" t="s">
+      <c r="J93" s="2" t="s">
         <v>897</v>
       </c>
-      <c r="J93" s="2" t="s">
+      <c r="K93" s="2" t="s">
         <v>898</v>
       </c>
-      <c r="K93" s="2" t="s">
+      <c r="L93" s="2" t="s">
         <v>899</v>
       </c>
-      <c r="L93" s="2" t="s">
-        <v>900</v>
-      </c>
       <c r="M93" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
         <v>92</v>
       </c>
@@ -8454,40 +8454,40 @@
         <v>2019</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E94" s="2" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>1066</v>
       </c>
-      <c r="F94" s="2" t="s">
+      <c r="G94" s="2" t="s">
         <v>1067</v>
       </c>
-      <c r="G94" s="2" t="s">
+      <c r="H94" s="2" t="s">
         <v>1068</v>
       </c>
-      <c r="H94" s="2" t="s">
+      <c r="I94" s="2" t="s">
         <v>1069</v>
       </c>
-      <c r="I94" s="2" t="s">
+      <c r="J94" s="2" t="s">
         <v>1070</v>
       </c>
-      <c r="J94" s="2" t="s">
+      <c r="K94" s="2" t="s">
         <v>1071</v>
       </c>
-      <c r="K94" s="2" t="s">
+      <c r="L94" s="2" t="s">
         <v>1072</v>
       </c>
-      <c r="L94" s="2" t="s">
+      <c r="M94" s="2" t="s">
         <v>1073</v>
       </c>
-      <c r="M94" s="2" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="3">
         <v>93</v>
       </c>
@@ -8498,37 +8498,37 @@
         <v>180</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E95" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>994</v>
       </c>
-      <c r="F95" s="2" t="s">
+      <c r="G95" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H95" s="2" t="s">
         <v>995</v>
       </c>
-      <c r="G95" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H95" s="2" t="s">
+      <c r="I95" s="2" t="s">
         <v>996</v>
       </c>
-      <c r="I95" s="2" t="s">
+      <c r="J95" s="2" t="s">
         <v>997</v>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="K95" s="2" t="s">
         <v>998</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="L95" s="2" t="s">
         <v>999</v>
       </c>
-      <c r="L95" s="2" t="s">
+      <c r="M95" s="2" t="s">
         <v>1000</v>
       </c>
-      <c r="M95" s="2" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
         <v>94</v>
       </c>
@@ -8536,40 +8536,40 @@
         <v>2019</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>210</v>
+        <v>1406</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E96" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>1110</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>980</v>
-      </c>
-      <c r="G96" s="2" t="s">
+      <c r="H96" s="2" t="s">
         <v>1111</v>
       </c>
-      <c r="H96" s="2" t="s">
+      <c r="I96" s="2" t="s">
         <v>1112</v>
       </c>
-      <c r="I96" s="2" t="s">
+      <c r="J96" s="2" t="s">
         <v>1113</v>
       </c>
-      <c r="J96" s="2" t="s">
+      <c r="K96" s="2" t="s">
         <v>1114</v>
       </c>
-      <c r="K96" s="2" t="s">
+      <c r="L96" s="2" t="s">
         <v>1115</v>
       </c>
-      <c r="L96" s="2" t="s">
+      <c r="M96" s="2" t="s">
         <v>1116</v>
       </c>
-      <c r="M96" s="2" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" s="3">
         <v>95</v>
       </c>
@@ -8577,40 +8577,40 @@
         <v>2019</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E97" s="2" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>1101</v>
       </c>
-      <c r="F97" s="2" t="s">
+      <c r="G97" s="2" t="s">
         <v>1102</v>
       </c>
-      <c r="G97" s="2" t="s">
+      <c r="H97" s="2" t="s">
         <v>1103</v>
       </c>
-      <c r="H97" s="2" t="s">
+      <c r="I97" s="2" t="s">
         <v>1104</v>
       </c>
-      <c r="I97" s="2" t="s">
+      <c r="J97" s="2" t="s">
         <v>1105</v>
       </c>
-      <c r="J97" s="2" t="s">
+      <c r="K97" s="2" t="s">
         <v>1106</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="L97" s="2" t="s">
         <v>1107</v>
       </c>
-      <c r="L97" s="2" t="s">
+      <c r="M97" s="2" t="s">
         <v>1108</v>
       </c>
-      <c r="M97" s="2" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" s="3">
         <v>96</v>
       </c>
@@ -8621,37 +8621,37 @@
         <v>140</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E98" s="2" t="s">
+        <v>976</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>977</v>
       </c>
-      <c r="F98" s="2" t="s">
+      <c r="G98" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H98" s="2" t="s">
         <v>978</v>
       </c>
-      <c r="G98" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H98" s="2" t="s">
+      <c r="I98" s="2" t="s">
         <v>979</v>
       </c>
-      <c r="I98" s="2" t="s">
+      <c r="J98" s="2" t="s">
         <v>980</v>
       </c>
-      <c r="J98" s="2" t="s">
+      <c r="K98" s="2" t="s">
         <v>981</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="L98" s="2" t="s">
         <v>982</v>
       </c>
-      <c r="L98" s="2" t="s">
+      <c r="M98" s="2" t="s">
         <v>983</v>
       </c>
-      <c r="M98" s="2" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" s="3">
         <v>97</v>
       </c>
@@ -8662,37 +8662,37 @@
         <v>160</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E99" s="2" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>1008</v>
       </c>
-      <c r="F99" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>1009</v>
       </c>
-      <c r="G99" s="2" t="s">
+      <c r="H99" s="2" t="s">
+        <v>970</v>
+      </c>
+      <c r="I99" s="2" t="s">
         <v>1010</v>
       </c>
-      <c r="H99" s="2" t="s">
-        <v>971</v>
-      </c>
-      <c r="I99" s="2" t="s">
+      <c r="J99" s="2" t="s">
         <v>1011</v>
       </c>
-      <c r="J99" s="2" t="s">
+      <c r="K99" s="2" t="s">
         <v>1012</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="L99" s="2" t="s">
         <v>1013</v>
       </c>
-      <c r="L99" s="2" t="s">
+      <c r="M99" s="2" t="s">
         <v>1014</v>
       </c>
-      <c r="M99" s="2" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>98</v>
       </c>
@@ -8703,37 +8703,37 @@
         <v>22</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E100" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>867</v>
       </c>
-      <c r="F100" s="2" t="s">
+      <c r="G100" s="2" t="s">
         <v>868</v>
       </c>
-      <c r="G100" s="2" t="s">
+      <c r="H100" s="2" t="s">
         <v>869</v>
       </c>
-      <c r="H100" s="2" t="s">
+      <c r="I100" s="2" t="s">
         <v>870</v>
       </c>
-      <c r="I100" s="2" t="s">
+      <c r="J100" s="2" t="s">
         <v>871</v>
       </c>
-      <c r="J100" s="2" t="s">
+      <c r="K100" s="2" t="s">
         <v>872</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="L100" s="2" t="s">
         <v>873</v>
       </c>
-      <c r="L100" s="2" t="s">
+      <c r="M100" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="M100" s="2" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" s="3">
         <v>99</v>
       </c>
@@ -8741,40 +8741,40 @@
         <v>2019</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E101" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="F101" s="2" t="s">
         <v>934</v>
       </c>
-      <c r="F101" s="2" t="s">
+      <c r="G101" s="2" t="s">
         <v>935</v>
-      </c>
-      <c r="G101" s="2" t="s">
-        <v>936</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>56</v>
       </c>
       <c r="I101" s="2" t="s">
+        <v>936</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="K101" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="J101" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="K101" s="2" t="s">
+      <c r="L101" s="2" t="s">
         <v>938</v>
       </c>
-      <c r="L101" s="2" t="s">
+      <c r="M101" s="2" t="s">
         <v>939</v>
       </c>
-      <c r="M101" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
         <v>100</v>
       </c>
@@ -8785,37 +8785,37 @@
         <v>90</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E102" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="F102" s="2" t="s">
         <v>885</v>
       </c>
-      <c r="F102" s="2" t="s">
+      <c r="G102" s="2" t="s">
         <v>886</v>
       </c>
-      <c r="G102" s="2" t="s">
+      <c r="H102" s="2" t="s">
         <v>887</v>
       </c>
-      <c r="H102" s="2" t="s">
+      <c r="I102" s="2" t="s">
         <v>888</v>
       </c>
-      <c r="I102" s="2" t="s">
+      <c r="J102" s="2" t="s">
         <v>889</v>
       </c>
-      <c r="J102" s="2" t="s">
+      <c r="K102" s="2" t="s">
         <v>890</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>891</v>
       </c>
       <c r="L102" s="2" t="s">
         <v>136</v>
       </c>
       <c r="M102" s="2" t="s">
-        <v>892</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" s="3">
         <v>101</v>
       </c>
@@ -8826,37 +8826,37 @@
         <v>130</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E103" s="2" t="s">
+        <v>1015</v>
+      </c>
+      <c r="F103" s="2" t="s">
         <v>1016</v>
       </c>
-      <c r="F103" s="2" t="s">
+      <c r="G103" s="2" t="s">
         <v>1017</v>
       </c>
-      <c r="G103" s="2" t="s">
+      <c r="H103" s="2" t="s">
         <v>1018</v>
       </c>
-      <c r="H103" s="2" t="s">
+      <c r="I103" s="2" t="s">
+        <v>338</v>
+      </c>
+      <c r="J103" s="2" t="s">
         <v>1019</v>
       </c>
-      <c r="I103" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="J103" s="2" t="s">
+      <c r="K103" s="2" t="s">
         <v>1020</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="L103" s="2" t="s">
         <v>1021</v>
       </c>
-      <c r="L103" s="2" t="s">
+      <c r="M103" s="2" t="s">
         <v>1022</v>
       </c>
-      <c r="M103" s="2" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
         <v>102</v>
       </c>
@@ -8867,37 +8867,37 @@
         <v>32</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E104" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="F104" s="2" t="s">
         <v>918</v>
       </c>
-      <c r="F104" s="2" t="s">
+      <c r="G104" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="H104" s="2" t="s">
         <v>919</v>
       </c>
-      <c r="G104" s="2" t="s">
-        <v>412</v>
-      </c>
-      <c r="H104" s="2" t="s">
+      <c r="I104" s="2" t="s">
         <v>920</v>
       </c>
-      <c r="I104" s="2" t="s">
+      <c r="J104" s="2" t="s">
         <v>921</v>
-      </c>
-      <c r="J104" s="2" t="s">
-        <v>922</v>
       </c>
       <c r="K104" s="2" t="s">
         <v>40</v>
       </c>
       <c r="L104" s="2" t="s">
+        <v>922</v>
+      </c>
+      <c r="M104" s="2" t="s">
         <v>923</v>
       </c>
-      <c r="M104" s="2" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" s="3">
         <v>103</v>
       </c>
@@ -8908,37 +8908,37 @@
         <v>170</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E105" s="2" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F105" s="2" t="s">
         <v>1084</v>
       </c>
-      <c r="F105" s="2" t="s">
+      <c r="G105" s="2" t="s">
         <v>1085</v>
       </c>
-      <c r="G105" s="2" t="s">
+      <c r="H105" s="2" t="s">
+        <v>1042</v>
+      </c>
+      <c r="I105" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="H105" s="2" t="s">
-        <v>1043</v>
-      </c>
-      <c r="I105" s="2" t="s">
+      <c r="J105" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="J105" s="2" t="s">
+      <c r="K105" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="K105" s="2" t="s">
+      <c r="L105" s="2" t="s">
         <v>1089</v>
       </c>
-      <c r="L105" s="2" t="s">
+      <c r="M105" s="2" t="s">
         <v>1090</v>
       </c>
-      <c r="M105" s="2" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" s="3">
         <v>104</v>
       </c>
@@ -8946,40 +8946,40 @@
         <v>2019</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E106" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F106" s="2" t="s">
         <v>1092</v>
       </c>
-      <c r="F106" s="2" t="s">
+      <c r="G106" s="2" t="s">
         <v>1093</v>
       </c>
-      <c r="G106" s="2" t="s">
+      <c r="H106" s="2" t="s">
         <v>1094</v>
       </c>
-      <c r="H106" s="2" t="s">
+      <c r="I106" s="2" t="s">
         <v>1095</v>
       </c>
-      <c r="I106" s="2" t="s">
+      <c r="J106" s="2" t="s">
         <v>1096</v>
       </c>
-      <c r="J106" s="2" t="s">
+      <c r="K106" s="2" t="s">
         <v>1097</v>
       </c>
-      <c r="K106" s="2" t="s">
+      <c r="L106" s="2" t="s">
         <v>1098</v>
       </c>
-      <c r="L106" s="2" t="s">
+      <c r="M106" s="2" t="s">
         <v>1099</v>
       </c>
-      <c r="M106" s="2" t="s">
-        <v>1100</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>105</v>
       </c>
@@ -8987,40 +8987,40 @@
         <v>2019</v>
       </c>
       <c r="C107" s="2" t="s">
+        <v>908</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="E107" s="2" t="s">
         <v>909</v>
       </c>
-      <c r="D107" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="E107" s="2" t="s">
+      <c r="F107" s="2" t="s">
         <v>910</v>
       </c>
-      <c r="F107" s="2" t="s">
+      <c r="G107" s="2" t="s">
         <v>911</v>
       </c>
-      <c r="G107" s="2" t="s">
+      <c r="H107" s="2" t="s">
         <v>912</v>
       </c>
-      <c r="H107" s="2" t="s">
+      <c r="I107" s="2" t="s">
         <v>913</v>
-      </c>
-      <c r="I107" s="2" t="s">
-        <v>914</v>
       </c>
       <c r="J107" s="2" t="s">
         <v>186</v>
       </c>
       <c r="K107" s="2" t="s">
+        <v>914</v>
+      </c>
+      <c r="L107" s="2" t="s">
         <v>915</v>
       </c>
-      <c r="L107" s="2" t="s">
+      <c r="M107" s="2" t="s">
         <v>916</v>
       </c>
-      <c r="M107" s="2" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" s="3">
         <v>106</v>
       </c>
@@ -9031,37 +9031,37 @@
         <v>150</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E108" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="G108" s="2" t="s">
         <v>1002</v>
       </c>
-      <c r="F108" s="2" t="s">
-        <v>995</v>
-      </c>
-      <c r="G108" s="2" t="s">
+      <c r="H108" s="2" t="s">
         <v>1003</v>
       </c>
-      <c r="H108" s="2" t="s">
+      <c r="I108" s="2" t="s">
         <v>1004</v>
       </c>
-      <c r="I108" s="2" t="s">
+      <c r="J108" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K108" s="2" t="s">
         <v>1005</v>
       </c>
-      <c r="J108" s="2" t="s">
-        <v>432</v>
-      </c>
-      <c r="K108" s="2" t="s">
+      <c r="L108" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="M108" s="2" t="s">
         <v>1006</v>
       </c>
-      <c r="L108" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="M108" s="2" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" s="3">
         <v>107</v>
       </c>
@@ -9072,37 +9072,37 @@
         <v>190</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E109" s="2" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="H109" s="2" t="s">
         <v>1059</v>
       </c>
-      <c r="F109" s="2" t="s">
-        <v>704</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="H109" s="2" t="s">
+      <c r="I109" s="2" t="s">
         <v>1060</v>
       </c>
-      <c r="I109" s="2" t="s">
+      <c r="J109" s="2" t="s">
         <v>1061</v>
       </c>
-      <c r="J109" s="2" t="s">
+      <c r="K109" s="2" t="s">
         <v>1062</v>
       </c>
-      <c r="K109" s="2" t="s">
+      <c r="L109" s="2" t="s">
         <v>1063</v>
       </c>
-      <c r="L109" s="2" t="s">
+      <c r="M109" s="2" t="s">
         <v>1064</v>
       </c>
-      <c r="M109" s="2" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>108</v>
       </c>
@@ -9110,40 +9110,40 @@
         <v>2019</v>
       </c>
       <c r="C110" s="2" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="E110" s="2" t="s">
         <v>1041</v>
       </c>
-      <c r="D110" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="E110" s="2" t="s">
+      <c r="F110" s="2" t="s">
         <v>1042</v>
       </c>
-      <c r="F110" s="2" t="s">
+      <c r="G110" s="2" t="s">
         <v>1043</v>
       </c>
-      <c r="G110" s="2" t="s">
+      <c r="H110" s="2" t="s">
         <v>1044</v>
       </c>
-      <c r="H110" s="2" t="s">
+      <c r="I110" s="2" t="s">
         <v>1045</v>
       </c>
-      <c r="I110" s="2" t="s">
+      <c r="J110" s="2" t="s">
         <v>1046</v>
       </c>
-      <c r="J110" s="2" t="s">
+      <c r="K110" s="2" t="s">
         <v>1047</v>
       </c>
-      <c r="K110" s="2" t="s">
+      <c r="L110" s="2" t="s">
         <v>1048</v>
       </c>
-      <c r="L110" s="2" t="s">
+      <c r="M110" s="2" t="s">
         <v>1049</v>
       </c>
-      <c r="M110" s="2" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" s="3">
         <v>109</v>
       </c>
@@ -9151,40 +9151,40 @@
         <v>2019</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E111" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>1024</v>
       </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="H111" s="2" t="s">
         <v>1025</v>
       </c>
-      <c r="G111" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="H111" s="2" t="s">
+      <c r="I111" s="2" t="s">
         <v>1026</v>
       </c>
-      <c r="I111" s="2" t="s">
+      <c r="J111" s="2" t="s">
         <v>1027</v>
       </c>
-      <c r="J111" s="2" t="s">
+      <c r="K111" s="2" t="s">
         <v>1028</v>
       </c>
-      <c r="K111" s="2" t="s">
+      <c r="L111" s="2" t="s">
         <v>1029</v>
       </c>
-      <c r="L111" s="2" t="s">
+      <c r="M111" s="2" t="s">
         <v>1030</v>
       </c>
-      <c r="M111" s="2" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
         <v>110</v>
       </c>
@@ -9195,37 +9195,37 @@
         <v>52</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E112" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="F112" s="2" t="s">
         <v>901</v>
       </c>
-      <c r="F112" s="2" t="s">
+      <c r="G112" s="2" t="s">
         <v>902</v>
       </c>
-      <c r="G112" s="2" t="s">
+      <c r="H112" s="2" t="s">
         <v>903</v>
       </c>
-      <c r="H112" s="2" t="s">
+      <c r="I112" s="2" t="s">
         <v>904</v>
-      </c>
-      <c r="I112" s="2" t="s">
-        <v>905</v>
       </c>
       <c r="J112" s="2" t="s">
         <v>176</v>
       </c>
       <c r="K112" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="L112" s="2" t="s">
         <v>906</v>
       </c>
-      <c r="L112" s="2" t="s">
+      <c r="M112" s="2" t="s">
         <v>907</v>
       </c>
-      <c r="M112" s="2" t="s">
-        <v>908</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
         <v>111</v>
       </c>
@@ -9233,40 +9233,40 @@
         <v>2019</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E113" s="2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F113" s="2" t="s">
         <v>1127</v>
       </c>
-      <c r="F113" s="2" t="s">
+      <c r="G113" s="2" t="s">
+        <v>409</v>
+      </c>
+      <c r="H113" s="2" t="s">
         <v>1128</v>
       </c>
-      <c r="G113" s="2" t="s">
-        <v>410</v>
-      </c>
-      <c r="H113" s="2" t="s">
+      <c r="I113" s="2" t="s">
+        <v>991</v>
+      </c>
+      <c r="J113" s="2" t="s">
         <v>1129</v>
       </c>
-      <c r="I113" s="2" t="s">
-        <v>992</v>
-      </c>
-      <c r="J113" s="2" t="s">
+      <c r="K113" s="2" t="s">
         <v>1130</v>
       </c>
-      <c r="K113" s="2" t="s">
+      <c r="L113" s="2" t="s">
         <v>1131</v>
       </c>
-      <c r="L113" s="2" t="s">
-        <v>1132</v>
-      </c>
       <c r="M113" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
         <v>112</v>
       </c>
@@ -9277,37 +9277,37 @@
         <v>61</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E114" s="2" t="s">
+        <v>924</v>
+      </c>
+      <c r="F114" s="2" t="s">
         <v>925</v>
       </c>
-      <c r="F114" s="2" t="s">
+      <c r="G114" s="2" t="s">
         <v>926</v>
       </c>
-      <c r="G114" s="2" t="s">
+      <c r="H114" s="2" t="s">
         <v>927</v>
       </c>
-      <c r="H114" s="2" t="s">
+      <c r="I114" s="2" t="s">
         <v>928</v>
       </c>
-      <c r="I114" s="2" t="s">
+      <c r="J114" s="2" t="s">
         <v>929</v>
       </c>
-      <c r="J114" s="2" t="s">
+      <c r="K114" s="2" t="s">
         <v>930</v>
       </c>
-      <c r="K114" s="2" t="s">
+      <c r="L114" s="2" t="s">
         <v>931</v>
       </c>
-      <c r="L114" s="2" t="s">
+      <c r="M114" s="2" t="s">
         <v>932</v>
       </c>
-      <c r="M114" s="2" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
         <v>113</v>
       </c>
@@ -9318,37 +9318,37 @@
         <v>200</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E115" s="2" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F115" s="2" t="s">
         <v>1051</v>
       </c>
-      <c r="F115" s="2" t="s">
+      <c r="G115" s="2" t="s">
         <v>1052</v>
       </c>
-      <c r="G115" s="2" t="s">
+      <c r="H115" s="2" t="s">
         <v>1053</v>
       </c>
-      <c r="H115" s="2" t="s">
+      <c r="I115" s="2" t="s">
         <v>1054</v>
       </c>
-      <c r="I115" s="2" t="s">
+      <c r="J115" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="K115" s="2" t="s">
         <v>1055</v>
       </c>
-      <c r="J115" s="2" t="s">
-        <v>1037</v>
-      </c>
-      <c r="K115" s="2" t="s">
+      <c r="L115" s="2" t="s">
         <v>1056</v>
       </c>
-      <c r="L115" s="2" t="s">
+      <c r="M115" s="2" t="s">
         <v>1057</v>
       </c>
-      <c r="M115" s="2" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
         <v>114</v>
       </c>
@@ -9359,37 +9359,37 @@
         <v>100</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E116" s="2" t="s">
+        <v>984</v>
+      </c>
+      <c r="F116" s="2" t="s">
         <v>985</v>
       </c>
-      <c r="F116" s="2" t="s">
+      <c r="G116" s="2" t="s">
         <v>986</v>
       </c>
-      <c r="G116" s="2" t="s">
+      <c r="H116" s="2" t="s">
         <v>987</v>
       </c>
-      <c r="H116" s="2" t="s">
+      <c r="I116" s="2" t="s">
         <v>988</v>
       </c>
-      <c r="I116" s="2" t="s">
+      <c r="J116" s="2" t="s">
         <v>989</v>
       </c>
-      <c r="J116" s="2" t="s">
+      <c r="K116" s="2" t="s">
         <v>990</v>
       </c>
-      <c r="K116" s="2" t="s">
+      <c r="L116" s="2" t="s">
         <v>991</v>
       </c>
-      <c r="L116" s="2" t="s">
+      <c r="M116" s="2" t="s">
         <v>992</v>
       </c>
-      <c r="M116" s="2" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
         <v>115</v>
       </c>
@@ -9397,40 +9397,40 @@
         <v>2019</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E117" s="2" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F117" s="2" t="s">
         <v>1075</v>
       </c>
-      <c r="F117" s="2" t="s">
+      <c r="G117" s="2" t="s">
         <v>1076</v>
       </c>
-      <c r="G117" s="2" t="s">
+      <c r="H117" s="2" t="s">
         <v>1077</v>
       </c>
-      <c r="H117" s="2" t="s">
+      <c r="I117" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="I117" s="2" t="s">
+      <c r="J117" s="2" t="s">
         <v>1079</v>
       </c>
-      <c r="J117" s="2" t="s">
+      <c r="K117" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="K117" s="2" t="s">
+      <c r="L117" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="L117" s="2" t="s">
+      <c r="M117" s="2" t="s">
         <v>1082</v>
       </c>
-      <c r="M117" s="2" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
         <v>116</v>
       </c>
@@ -9438,40 +9438,40 @@
         <v>2019</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E118" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F118" s="2" t="s">
         <v>1133</v>
       </c>
-      <c r="F118" s="2" t="s">
+      <c r="G118" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="H118" s="2" t="s">
         <v>1134</v>
       </c>
-      <c r="G118" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="H118" s="2" t="s">
+      <c r="I118" s="2" t="s">
         <v>1135</v>
       </c>
-      <c r="I118" s="2" t="s">
+      <c r="J118" s="2" t="s">
+        <v>501</v>
+      </c>
+      <c r="K118" s="2" t="s">
         <v>1136</v>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>502</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="L118" s="2" t="s">
         <v>1137</v>
       </c>
-      <c r="L118" s="2" t="s">
+      <c r="M118" s="2" t="s">
         <v>1138</v>
       </c>
-      <c r="M118" s="2" t="s">
-        <v>1139</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
         <v>117</v>
       </c>
@@ -9479,40 +9479,40 @@
         <v>2019</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E119" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F119" s="2" t="s">
         <v>1118</v>
       </c>
-      <c r="F119" s="2" t="s">
+      <c r="G119" s="2" t="s">
         <v>1119</v>
       </c>
-      <c r="G119" s="2" t="s">
+      <c r="H119" s="2" t="s">
         <v>1120</v>
       </c>
-      <c r="H119" s="2" t="s">
+      <c r="I119" s="2" t="s">
         <v>1121</v>
       </c>
-      <c r="I119" s="2" t="s">
+      <c r="J119" s="2" t="s">
         <v>1122</v>
       </c>
-      <c r="J119" s="2" t="s">
+      <c r="K119" s="2" t="s">
         <v>1123</v>
       </c>
-      <c r="K119" s="2" t="s">
+      <c r="L119" s="2" t="s">
         <v>1124</v>
       </c>
-      <c r="L119" s="2" t="s">
+      <c r="M119" s="2" t="s">
         <v>1125</v>
       </c>
-      <c r="M119" s="2" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
         <v>118</v>
       </c>
@@ -9520,40 +9520,40 @@
         <v>2019</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E120" s="2" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>1032</v>
       </c>
-      <c r="F120" s="2" t="s">
+      <c r="G120" s="2" t="s">
         <v>1033</v>
       </c>
-      <c r="G120" s="2" t="s">
+      <c r="H120" s="2" t="s">
         <v>1034</v>
       </c>
-      <c r="H120" s="2" t="s">
+      <c r="I120" s="2" t="s">
         <v>1035</v>
       </c>
-      <c r="I120" s="2" t="s">
+      <c r="J120" s="2" t="s">
         <v>1036</v>
       </c>
-      <c r="J120" s="2" t="s">
+      <c r="K120" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="K120" s="2" t="s">
+      <c r="L120" s="2" t="s">
         <v>1038</v>
       </c>
-      <c r="L120" s="2" t="s">
+      <c r="M120" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="M120" s="2" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
         <v>119</v>
       </c>
@@ -9564,37 +9564,37 @@
         <v>120</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E121" s="2" t="s">
+        <v>949</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>950</v>
       </c>
-      <c r="F121" s="2" t="s">
+      <c r="G121" s="2" t="s">
         <v>951</v>
       </c>
-      <c r="G121" s="2" t="s">
+      <c r="H121" s="2" t="s">
         <v>952</v>
       </c>
-      <c r="H121" s="2" t="s">
+      <c r="I121" s="2" t="s">
         <v>953</v>
       </c>
-      <c r="I121" s="2" t="s">
+      <c r="J121" s="2" t="s">
         <v>954</v>
       </c>
-      <c r="J121" s="2" t="s">
+      <c r="K121" s="2" t="s">
         <v>955</v>
       </c>
-      <c r="K121" s="2" t="s">
+      <c r="L121" s="2" t="s">
         <v>956</v>
       </c>
-      <c r="L121" s="2" t="s">
+      <c r="M121" s="2" t="s">
         <v>957</v>
       </c>
-      <c r="M121" s="2" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
         <v>120</v>
       </c>
@@ -9605,37 +9605,37 @@
         <v>71</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E122" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>959</v>
       </c>
-      <c r="F122" s="2" t="s">
+      <c r="G122" s="2" t="s">
         <v>960</v>
       </c>
-      <c r="G122" s="2" t="s">
+      <c r="H122" s="2" t="s">
         <v>961</v>
       </c>
-      <c r="H122" s="2" t="s">
+      <c r="I122" s="2" t="s">
         <v>962</v>
       </c>
-      <c r="I122" s="2" t="s">
+      <c r="J122" s="2" t="s">
         <v>963</v>
       </c>
-      <c r="J122" s="2" t="s">
+      <c r="K122" s="2" t="s">
         <v>964</v>
       </c>
-      <c r="K122" s="2" t="s">
+      <c r="L122" s="2" t="s">
         <v>965</v>
       </c>
-      <c r="L122" s="2" t="s">
+      <c r="M122" s="2" t="s">
         <v>966</v>
       </c>
-      <c r="M122" s="2" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
         <v>121</v>
       </c>
@@ -9646,37 +9646,37 @@
         <v>81</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E123" s="2" t="s">
+        <v>940</v>
+      </c>
+      <c r="F123" s="2" t="s">
         <v>941</v>
       </c>
-      <c r="F123" s="2" t="s">
+      <c r="G123" s="2" t="s">
         <v>942</v>
       </c>
-      <c r="G123" s="2" t="s">
+      <c r="H123" s="2" t="s">
         <v>943</v>
       </c>
-      <c r="H123" s="2" t="s">
+      <c r="I123" s="2" t="s">
         <v>944</v>
       </c>
-      <c r="I123" s="2" t="s">
+      <c r="J123" s="2" t="s">
         <v>945</v>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="K123" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="L123" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="L123" s="2" t="s">
+      <c r="M123" s="2" t="s">
         <v>948</v>
       </c>
-      <c r="M123" s="2" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
         <v>122</v>
       </c>
@@ -9687,37 +9687,37 @@
         <v>12</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E124" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="F124" s="2" t="s">
         <v>876</v>
       </c>
-      <c r="F124" s="2" t="s">
+      <c r="G124" s="2" t="s">
         <v>877</v>
       </c>
-      <c r="G124" s="2" t="s">
+      <c r="H124" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="H124" s="2" t="s">
+      <c r="I124" s="2" t="s">
         <v>879</v>
       </c>
-      <c r="I124" s="2" t="s">
+      <c r="J124" s="2" t="s">
         <v>880</v>
       </c>
-      <c r="J124" s="2" t="s">
+      <c r="K124" s="2" t="s">
         <v>881</v>
       </c>
-      <c r="K124" s="2" t="s">
+      <c r="L124" s="2" t="s">
         <v>882</v>
       </c>
-      <c r="L124" s="2" t="s">
+      <c r="M124" s="2" t="s">
         <v>883</v>
       </c>
-      <c r="M124" s="2" t="s">
-        <v>884</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
         <v>123</v>
       </c>
@@ -9725,40 +9725,40 @@
         <v>2019</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E125" s="2" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>1140</v>
       </c>
-      <c r="F125" s="2" t="s">
+      <c r="G125" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="H125" s="2" t="s">
         <v>1141</v>
       </c>
-      <c r="G125" s="2" t="s">
-        <v>790</v>
-      </c>
-      <c r="H125" s="2" t="s">
+      <c r="I125" s="2" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J125" s="2" t="s">
         <v>1142</v>
       </c>
-      <c r="I125" s="2" t="s">
-        <v>1131</v>
-      </c>
-      <c r="J125" s="2" t="s">
+      <c r="K125" s="2" t="s">
         <v>1143</v>
       </c>
-      <c r="K125" s="2" t="s">
+      <c r="L125" s="2" t="s">
         <v>1144</v>
       </c>
-      <c r="L125" s="2" t="s">
+      <c r="M125" s="2" t="s">
         <v>1145</v>
       </c>
-      <c r="M125" s="2" t="s">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
         <v>124</v>
       </c>
@@ -9769,37 +9769,37 @@
         <v>110</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E126" s="2" t="s">
+        <v>967</v>
+      </c>
+      <c r="F126" s="2" t="s">
         <v>968</v>
       </c>
-      <c r="F126" s="2" t="s">
+      <c r="G126" s="2" t="s">
         <v>969</v>
       </c>
-      <c r="G126" s="2" t="s">
+      <c r="H126" s="2" t="s">
         <v>970</v>
       </c>
-      <c r="H126" s="2" t="s">
+      <c r="I126" s="2" t="s">
         <v>971</v>
       </c>
-      <c r="I126" s="2" t="s">
+      <c r="J126" s="2" t="s">
         <v>972</v>
       </c>
-      <c r="J126" s="2" t="s">
+      <c r="K126" s="2" t="s">
         <v>973</v>
       </c>
-      <c r="K126" s="2" t="s">
+      <c r="L126" s="2" t="s">
         <v>974</v>
       </c>
-      <c r="L126" s="2" t="s">
+      <c r="M126" s="2" t="s">
         <v>975</v>
       </c>
-      <c r="M126" s="2" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
         <v>125</v>
       </c>
@@ -9810,37 +9810,37 @@
         <v>42</v>
       </c>
       <c r="D127" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E127" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F127" s="2" t="s">
         <v>1180</v>
       </c>
-      <c r="F127" s="2" t="s">
+      <c r="G127" s="2" t="s">
         <v>1181</v>
       </c>
-      <c r="G127" s="2" t="s">
+      <c r="H127" s="2" t="s">
         <v>1182</v>
       </c>
-      <c r="H127" s="2" t="s">
+      <c r="I127" s="2" t="s">
         <v>1183</v>
       </c>
-      <c r="I127" s="2" t="s">
+      <c r="J127" s="2" t="s">
         <v>1184</v>
       </c>
-      <c r="J127" s="2" t="s">
+      <c r="K127" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="L127" s="2" t="s">
         <v>1185</v>
       </c>
-      <c r="K127" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="L127" s="2" t="s">
+      <c r="M127" s="2" t="s">
         <v>1186</v>
       </c>
-      <c r="M127" s="2" t="s">
-        <v>1187</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
         <v>126</v>
       </c>
@@ -9848,40 +9848,40 @@
         <v>2020</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E128" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F128" s="2" t="s">
         <v>1332</v>
       </c>
-      <c r="F128" s="2" t="s">
+      <c r="G128" s="2" t="s">
         <v>1333</v>
       </c>
-      <c r="G128" s="2" t="s">
+      <c r="H128" s="2" t="s">
         <v>1334</v>
       </c>
-      <c r="H128" s="2" t="s">
+      <c r="I128" s="2" t="s">
         <v>1335</v>
       </c>
-      <c r="I128" s="2" t="s">
+      <c r="J128" s="2" t="s">
         <v>1336</v>
       </c>
-      <c r="J128" s="2" t="s">
+      <c r="K128" s="2" t="s">
+        <v>672</v>
+      </c>
+      <c r="L128" s="2" t="s">
         <v>1337</v>
       </c>
-      <c r="K128" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="L128" s="2" t="s">
-        <v>1338</v>
-      </c>
       <c r="M128" s="2" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
         <v>127</v>
       </c>
@@ -9892,37 +9892,37 @@
         <v>180</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E129" s="2" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F129" s="2" t="s">
         <v>1294</v>
       </c>
-      <c r="F129" s="2" t="s">
+      <c r="G129" s="2" t="s">
         <v>1295</v>
       </c>
-      <c r="G129" s="2" t="s">
+      <c r="H129" s="2" t="s">
         <v>1296</v>
       </c>
-      <c r="H129" s="2" t="s">
+      <c r="I129" s="2" t="s">
         <v>1297</v>
       </c>
-      <c r="I129" s="2" t="s">
+      <c r="J129" s="2" t="s">
         <v>1298</v>
       </c>
-      <c r="J129" s="2" t="s">
+      <c r="K129" s="2" t="s">
         <v>1299</v>
       </c>
-      <c r="K129" s="2" t="s">
+      <c r="L129" s="2" t="s">
         <v>1300</v>
       </c>
-      <c r="L129" s="2" t="s">
+      <c r="M129" s="2" t="s">
         <v>1301</v>
       </c>
-      <c r="M129" s="2" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
         <v>128</v>
       </c>
@@ -9930,40 +9930,40 @@
         <v>2020</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>210</v>
+        <v>1406</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="E130" s="2" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F130" s="2" t="s">
         <v>1367</v>
       </c>
-      <c r="F130" s="2" t="s">
+      <c r="G130" s="2" t="s">
         <v>1368</v>
       </c>
-      <c r="G130" s="2" t="s">
+      <c r="H130" s="2" t="s">
         <v>1369</v>
       </c>
-      <c r="H130" s="2" t="s">
+      <c r="I130" s="2" t="s">
         <v>1370</v>
       </c>
-      <c r="I130" s="2" t="s">
+      <c r="J130" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="K130" s="2" t="s">
         <v>1371</v>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>1097</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="L130" s="2" t="s">
         <v>1372</v>
       </c>
-      <c r="L130" s="2" t="s">
-        <v>1373</v>
-      </c>
       <c r="M130" s="2" t="s">
-        <v>1117</v>
-      </c>
-    </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
         <v>129</v>
       </c>
@@ -9971,40 +9971,40 @@
         <v>2020</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="E131" s="2" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>1351</v>
       </c>
-      <c r="F131" s="2" t="s">
+      <c r="G131" s="2" t="s">
         <v>1352</v>
       </c>
-      <c r="G131" s="2" t="s">
+      <c r="H131" s="2" t="s">
         <v>1353</v>
       </c>
-      <c r="H131" s="2" t="s">
+      <c r="I131" s="2" t="s">
         <v>1354</v>
       </c>
-      <c r="I131" s="2" t="s">
+      <c r="J131" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="K131" s="2" t="s">
         <v>1355</v>
       </c>
-      <c r="J131" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="K131" s="2" t="s">
+      <c r="L131" s="2" t="s">
         <v>1356</v>
       </c>
-      <c r="L131" s="2" t="s">
-        <v>1357</v>
-      </c>
       <c r="M131" s="2" t="s">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="3">
         <v>130</v>
       </c>
@@ -10015,37 +10015,37 @@
         <v>140</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E132" s="2" t="s">
+        <v>1263</v>
+      </c>
+      <c r="F132" s="2" t="s">
         <v>1264</v>
       </c>
-      <c r="F132" s="2" t="s">
+      <c r="G132" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="H132" s="2" t="s">
         <v>1265</v>
       </c>
-      <c r="G132" s="2" t="s">
-        <v>695</v>
-      </c>
-      <c r="H132" s="2" t="s">
+      <c r="I132" s="2" t="s">
         <v>1266</v>
       </c>
-      <c r="I132" s="2" t="s">
+      <c r="J132" s="2" t="s">
         <v>1267</v>
       </c>
-      <c r="J132" s="2" t="s">
+      <c r="K132" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="L132" s="2" t="s">
         <v>1268</v>
       </c>
-      <c r="K132" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="L132" s="2" t="s">
+      <c r="M132" s="2" t="s">
         <v>1269</v>
       </c>
-      <c r="M132" s="2" t="s">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="3">
         <v>131</v>
       </c>
@@ -10056,37 +10056,37 @@
         <v>160</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E133" s="2" t="s">
+        <v>1270</v>
+      </c>
+      <c r="F133" s="2" t="s">
         <v>1271</v>
       </c>
-      <c r="F133" s="2" t="s">
+      <c r="G133" s="2" t="s">
         <v>1272</v>
       </c>
-      <c r="G133" s="2" t="s">
+      <c r="H133" s="2" t="s">
         <v>1273</v>
       </c>
-      <c r="H133" s="2" t="s">
+      <c r="I133" s="2" t="s">
         <v>1274</v>
       </c>
-      <c r="I133" s="2" t="s">
+      <c r="J133" s="2" t="s">
         <v>1275</v>
       </c>
-      <c r="J133" s="2" t="s">
+      <c r="K133" s="2" t="s">
         <v>1276</v>
       </c>
-      <c r="K133" s="2" t="s">
+      <c r="L133" s="2" t="s">
         <v>1277</v>
       </c>
-      <c r="L133" s="2" t="s">
-        <v>1278</v>
-      </c>
       <c r="M133" s="2" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="3">
         <v>132</v>
       </c>
@@ -10097,37 +10097,37 @@
         <v>22</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E134" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F134" s="2" t="s">
         <v>1147</v>
       </c>
-      <c r="F134" s="2" t="s">
+      <c r="G134" s="2" t="s">
         <v>1148</v>
       </c>
-      <c r="G134" s="2" t="s">
+      <c r="H134" s="2" t="s">
         <v>1149</v>
       </c>
-      <c r="H134" s="2" t="s">
+      <c r="I134" s="2" t="s">
         <v>1150</v>
       </c>
-      <c r="I134" s="2" t="s">
+      <c r="J134" s="2" t="s">
         <v>1151</v>
       </c>
-      <c r="J134" s="2" t="s">
+      <c r="K134" s="2" t="s">
         <v>1152</v>
       </c>
-      <c r="K134" s="2" t="s">
+      <c r="L134" s="2" t="s">
         <v>1153</v>
       </c>
-      <c r="L134" s="2" t="s">
-        <v>1154</v>
-      </c>
       <c r="M134" s="2" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="3">
         <v>133</v>
       </c>
@@ -10135,40 +10135,40 @@
         <v>2020</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E135" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G135" s="2" t="s">
         <v>1202</v>
       </c>
-      <c r="F135" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="G135" s="2" t="s">
+      <c r="H135" s="2" t="s">
         <v>1203</v>
       </c>
-      <c r="H135" s="2" t="s">
+      <c r="I135" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="J135" s="2" t="s">
         <v>1204</v>
       </c>
-      <c r="I135" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="J135" s="2" t="s">
+      <c r="K135" s="2" t="s">
         <v>1205</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="L135" s="2" t="s">
         <v>1206</v>
       </c>
-      <c r="L135" s="2" t="s">
-        <v>1207</v>
-      </c>
       <c r="M135" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="3">
         <v>134</v>
       </c>
@@ -10179,37 +10179,37 @@
         <v>90</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F136" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G136" s="2" t="s">
         <v>1163</v>
       </c>
-      <c r="G136" s="2" t="s">
+      <c r="H136" s="2" t="s">
         <v>1164</v>
       </c>
-      <c r="H136" s="2" t="s">
+      <c r="I136" s="2" t="s">
         <v>1165</v>
       </c>
-      <c r="I136" s="2" t="s">
+      <c r="J136" s="2" t="s">
         <v>1166</v>
       </c>
-      <c r="J136" s="2" t="s">
+      <c r="K136" s="2" t="s">
         <v>1167</v>
       </c>
-      <c r="K136" s="2" t="s">
+      <c r="L136" s="2" t="s">
         <v>1168</v>
       </c>
-      <c r="L136" s="2" t="s">
+      <c r="M136" s="2" t="s">
         <v>1169</v>
       </c>
-      <c r="M136" s="2" t="s">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="3">
         <v>135</v>
       </c>
@@ -10220,37 +10220,37 @@
         <v>130</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="E137" s="2" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F137" s="2" t="s">
         <v>1279</v>
       </c>
-      <c r="F137" s="2" t="s">
+      <c r="G137" s="2" t="s">
         <v>1280</v>
       </c>
-      <c r="G137" s="2" t="s">
+      <c r="H137" s="2" t="s">
         <v>1281</v>
       </c>
-      <c r="H137" s="2" t="s">
+      <c r="I137" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="J137" s="2" t="s">
         <v>1282</v>
       </c>
-      <c r="I137" s="2" t="s">
-        <v>928</v>
-      </c>
-      <c r="J137" s="2" t="s">
+      <c r="K137" s="2" t="s">
         <v>1283</v>
       </c>
-      <c r="K137" s="2" t="s">
+      <c r="L137" s="2" t="s">
         <v>1284</v>
       </c>
-      <c r="L137" s="2" t="s">
+      <c r="M137" s="2" t="s">
         <v>1285</v>
       </c>
-      <c r="M137" s="2" t="s">
-        <v>1286</v>
-      </c>
-    </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="3">
         <v>136</v>
       </c>
@@ -10261,37 +10261,37 @@
         <v>32</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E138" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="F138" s="2" t="s">
         <v>1194</v>
       </c>
-      <c r="F138" s="2" t="s">
+      <c r="G138" s="2" t="s">
         <v>1195</v>
       </c>
-      <c r="G138" s="2" t="s">
+      <c r="H138" s="2" t="s">
         <v>1196</v>
       </c>
-      <c r="H138" s="2" t="s">
+      <c r="I138" s="2" t="s">
         <v>1197</v>
       </c>
-      <c r="I138" s="2" t="s">
+      <c r="J138" s="2" t="s">
         <v>1198</v>
       </c>
-      <c r="J138" s="2" t="s">
+      <c r="K138" s="2" t="s">
         <v>1199</v>
       </c>
-      <c r="K138" s="2" t="s">
+      <c r="L138" s="2" t="s">
         <v>1200</v>
       </c>
-      <c r="L138" s="2" t="s">
-        <v>1201</v>
-      </c>
       <c r="M138" s="2" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="3">
         <v>137</v>
       </c>
@@ -10302,37 +10302,37 @@
         <v>170</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E139" s="2" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F139" s="2" t="s">
         <v>1339</v>
       </c>
-      <c r="F139" s="2" t="s">
+      <c r="G139" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I139" s="2" t="s">
         <v>1340</v>
       </c>
-      <c r="G139" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="H139" s="2" t="s">
-        <v>1111</v>
-      </c>
-      <c r="I139" s="2" t="s">
+      <c r="J139" s="2" t="s">
         <v>1341</v>
       </c>
-      <c r="J139" s="2" t="s">
+      <c r="K139" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="L139" s="2" t="s">
         <v>1342</v>
       </c>
-      <c r="K139" s="2" t="s">
-        <v>553</v>
-      </c>
-      <c r="L139" s="2" t="s">
-        <v>1343</v>
-      </c>
       <c r="M139" s="2" t="s">
-        <v>1091</v>
-      </c>
-    </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="3">
         <v>138</v>
       </c>
@@ -10340,40 +10340,40 @@
         <v>2020</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E140" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F140" s="2" t="s">
         <v>1358</v>
       </c>
-      <c r="F140" s="2" t="s">
+      <c r="G140" s="2" t="s">
         <v>1359</v>
       </c>
-      <c r="G140" s="2" t="s">
+      <c r="H140" s="2" t="s">
         <v>1360</v>
       </c>
-      <c r="H140" s="2" t="s">
+      <c r="I140" s="2" t="s">
         <v>1361</v>
       </c>
-      <c r="I140" s="2" t="s">
+      <c r="J140" s="2" t="s">
         <v>1362</v>
       </c>
-      <c r="J140" s="2" t="s">
+      <c r="K140" s="2" t="s">
         <v>1363</v>
       </c>
-      <c r="K140" s="2" t="s">
+      <c r="L140" s="2" t="s">
         <v>1364</v>
       </c>
-      <c r="L140" s="2" t="s">
+      <c r="M140" s="2" t="s">
         <v>1365</v>
       </c>
-      <c r="M140" s="2" t="s">
-        <v>1366</v>
-      </c>
-    </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="3">
         <v>139</v>
       </c>
@@ -10381,40 +10381,40 @@
         <v>2020</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="E141" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>995</v>
+      </c>
+      <c r="G141" s="2" t="s">
         <v>1188</v>
       </c>
-      <c r="F141" s="2" t="s">
-        <v>996</v>
-      </c>
-      <c r="G141" s="2" t="s">
+      <c r="H141" s="2" t="s">
         <v>1189</v>
       </c>
-      <c r="H141" s="2" t="s">
+      <c r="I141" s="2" t="s">
         <v>1190</v>
       </c>
-      <c r="I141" s="2" t="s">
+      <c r="J141" s="2" t="s">
+        <v>640</v>
+      </c>
+      <c r="K141" s="2" t="s">
         <v>1191</v>
       </c>
-      <c r="J141" s="2" t="s">
-        <v>641</v>
-      </c>
-      <c r="K141" s="2" t="s">
+      <c r="L141" s="2" t="s">
         <v>1192</v>
       </c>
-      <c r="L141" s="2" t="s">
-        <v>1193</v>
-      </c>
       <c r="M141" s="2" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="3">
         <v>140</v>
       </c>
@@ -10425,37 +10425,37 @@
         <v>150</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="E142" s="2" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F142" s="2" t="s">
         <v>1287</v>
       </c>
-      <c r="F142" s="2" t="s">
+      <c r="G142" s="2" t="s">
         <v>1288</v>
       </c>
-      <c r="G142" s="2" t="s">
+      <c r="H142" s="2" t="s">
         <v>1289</v>
       </c>
-      <c r="H142" s="2" t="s">
+      <c r="I142" s="2" t="s">
         <v>1290</v>
       </c>
-      <c r="I142" s="2" t="s">
+      <c r="J142" s="2" t="s">
+        <v>631</v>
+      </c>
+      <c r="K142" s="2" t="s">
         <v>1291</v>
       </c>
-      <c r="J142" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="K142" s="2" t="s">
+      <c r="L142" s="2" t="s">
         <v>1292</v>
       </c>
-      <c r="L142" s="2" t="s">
-        <v>1293</v>
-      </c>
       <c r="M142" s="2" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="3">
         <v>141</v>
       </c>
@@ -10466,37 +10466,37 @@
         <v>190</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E143" s="2" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F143" s="2" t="s">
         <v>1325</v>
       </c>
-      <c r="F143" s="2" t="s">
+      <c r="G143" s="2" t="s">
         <v>1326</v>
-      </c>
-      <c r="G143" s="2" t="s">
-        <v>1327</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>47</v>
       </c>
       <c r="I143" s="2" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J143" s="2" t="s">
+        <v>1327</v>
+      </c>
+      <c r="K143" s="2" t="s">
         <v>1328</v>
       </c>
-      <c r="K143" s="2" t="s">
+      <c r="L143" s="2" t="s">
         <v>1329</v>
       </c>
-      <c r="L143" s="2" t="s">
+      <c r="M143" s="2" t="s">
         <v>1330</v>
       </c>
-      <c r="M143" s="2" t="s">
-        <v>1331</v>
-      </c>
-    </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="3">
         <v>142</v>
       </c>
@@ -10504,40 +10504,40 @@
         <v>2020</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E144" s="2" t="s">
+        <v>1309</v>
+      </c>
+      <c r="F144" s="2" t="s">
         <v>1310</v>
       </c>
-      <c r="F144" s="2" t="s">
+      <c r="G144" s="2" t="s">
         <v>1311</v>
       </c>
-      <c r="G144" s="2" t="s">
+      <c r="H144" s="2" t="s">
         <v>1312</v>
       </c>
-      <c r="H144" s="2" t="s">
+      <c r="I144" s="2" t="s">
         <v>1313</v>
       </c>
-      <c r="I144" s="2" t="s">
-        <v>1314</v>
-      </c>
       <c r="J144" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K144" s="2" t="s">
         <v>97</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="M144" s="2" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A145" s="3">
         <v>143</v>
       </c>
@@ -10545,40 +10545,40 @@
         <v>2020</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E145" s="2" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F145" s="2" t="s">
         <v>1257</v>
       </c>
-      <c r="F145" s="2" t="s">
+      <c r="G145" s="2" t="s">
         <v>1258</v>
       </c>
-      <c r="G145" s="2" t="s">
+      <c r="H145" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="I145" s="2" t="s">
         <v>1259</v>
       </c>
-      <c r="H145" s="2" t="s">
-        <v>385</v>
-      </c>
-      <c r="I145" s="2" t="s">
+      <c r="J145" s="2" t="s">
         <v>1260</v>
       </c>
-      <c r="J145" s="2" t="s">
+      <c r="K145" s="2" t="s">
         <v>1261</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="L145" s="2" t="s">
         <v>1262</v>
-      </c>
-      <c r="L145" s="2" t="s">
-        <v>1263</v>
       </c>
       <c r="M145" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A146" s="3">
         <v>144</v>
       </c>
@@ -10589,37 +10589,37 @@
         <v>52</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E146" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="F146" s="2" t="s">
         <v>1171</v>
       </c>
-      <c r="F146" s="2" t="s">
+      <c r="G146" s="2" t="s">
         <v>1172</v>
       </c>
-      <c r="G146" s="2" t="s">
+      <c r="H146" s="2" t="s">
         <v>1173</v>
       </c>
-      <c r="H146" s="2" t="s">
+      <c r="I146" s="2" t="s">
         <v>1174</v>
       </c>
-      <c r="I146" s="2" t="s">
+      <c r="J146" s="2" t="s">
         <v>1175</v>
       </c>
-      <c r="J146" s="2" t="s">
+      <c r="K146" s="2" t="s">
         <v>1176</v>
       </c>
-      <c r="K146" s="2" t="s">
+      <c r="L146" s="2" t="s">
         <v>1177</v>
       </c>
-      <c r="L146" s="2" t="s">
+      <c r="M146" s="2" t="s">
         <v>1178</v>
       </c>
-      <c r="M146" s="2" t="s">
-        <v>1179</v>
-      </c>
-    </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="147" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A147" s="3">
         <v>145</v>
       </c>
@@ -10627,40 +10627,40 @@
         <v>2020</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E147" s="2" t="s">
+        <v>1380</v>
+      </c>
+      <c r="F147" s="2" t="s">
         <v>1381</v>
       </c>
-      <c r="F147" s="2" t="s">
+      <c r="G147" s="2" t="s">
         <v>1382</v>
       </c>
-      <c r="G147" s="2" t="s">
+      <c r="H147" s="2" t="s">
         <v>1383</v>
       </c>
-      <c r="H147" s="2" t="s">
+      <c r="I147" s="2" t="s">
         <v>1384</v>
       </c>
-      <c r="I147" s="2" t="s">
+      <c r="J147" s="2" t="s">
         <v>1385</v>
       </c>
-      <c r="J147" s="2" t="s">
+      <c r="K147" s="2" t="s">
         <v>1386</v>
       </c>
-      <c r="K147" s="2" t="s">
+      <c r="L147" s="2" t="s">
         <v>1387</v>
       </c>
-      <c r="L147" s="2" t="s">
-        <v>1388</v>
-      </c>
       <c r="M147" s="2" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A148" s="3">
         <v>146</v>
       </c>
@@ -10671,37 +10671,37 @@
         <v>61</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E148" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F148" s="2" t="s">
         <v>1216</v>
       </c>
-      <c r="F148" s="2" t="s">
+      <c r="G148" s="2" t="s">
         <v>1217</v>
-      </c>
-      <c r="G148" s="2" t="s">
-        <v>1218</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>94</v>
       </c>
       <c r="I148" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="J148" s="2" t="s">
         <v>1219</v>
       </c>
-      <c r="J148" s="2" t="s">
+      <c r="K148" s="2" t="s">
         <v>1220</v>
       </c>
-      <c r="K148" s="2" t="s">
+      <c r="L148" s="2" t="s">
         <v>1221</v>
       </c>
-      <c r="L148" s="2" t="s">
+      <c r="M148" s="2" t="s">
         <v>1222</v>
       </c>
-      <c r="M148" s="2" t="s">
-        <v>1223</v>
-      </c>
-    </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="149" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A149" s="3">
         <v>147</v>
       </c>
@@ -10712,37 +10712,37 @@
         <v>200</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E149" s="2" t="s">
+        <v>1315</v>
+      </c>
+      <c r="F149" s="2" t="s">
         <v>1316</v>
       </c>
-      <c r="F149" s="2" t="s">
+      <c r="G149" s="2" t="s">
         <v>1317</v>
       </c>
-      <c r="G149" s="2" t="s">
+      <c r="H149" s="2" t="s">
         <v>1318</v>
       </c>
-      <c r="H149" s="2" t="s">
+      <c r="I149" s="2" t="s">
         <v>1319</v>
       </c>
-      <c r="I149" s="2" t="s">
+      <c r="J149" s="2" t="s">
         <v>1320</v>
       </c>
-      <c r="J149" s="2" t="s">
+      <c r="K149" s="2" t="s">
         <v>1321</v>
       </c>
-      <c r="K149" s="2" t="s">
+      <c r="L149" s="2" t="s">
         <v>1322</v>
       </c>
-      <c r="L149" s="2" t="s">
+      <c r="M149" s="2" t="s">
         <v>1323</v>
       </c>
-      <c r="M149" s="2" t="s">
-        <v>1324</v>
-      </c>
-    </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="150" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A150" s="3">
         <v>148</v>
       </c>
@@ -10753,37 +10753,37 @@
         <v>100</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E150" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="F150" s="2" t="s">
         <v>1240</v>
       </c>
-      <c r="F150" s="2" t="s">
+      <c r="G150" s="2" t="s">
         <v>1241</v>
-      </c>
-      <c r="G150" s="2" t="s">
-        <v>1242</v>
       </c>
       <c r="H150" s="2" t="s">
         <v>93</v>
       </c>
       <c r="I150" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="J150" s="2" t="s">
         <v>1243</v>
       </c>
-      <c r="J150" s="2" t="s">
+      <c r="K150" s="2" t="s">
         <v>1244</v>
       </c>
-      <c r="K150" s="2" t="s">
+      <c r="L150" s="2" t="s">
         <v>1245</v>
       </c>
-      <c r="L150" s="2" t="s">
+      <c r="M150" s="2" t="s">
         <v>1246</v>
       </c>
-      <c r="M150" s="2" t="s">
-        <v>1247</v>
-      </c>
-    </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="151" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A151" s="3">
         <v>149</v>
       </c>
@@ -10791,40 +10791,40 @@
         <v>2020</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E151" s="2" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>1344</v>
       </c>
-      <c r="F151" s="2" t="s">
+      <c r="G151" s="2" t="s">
         <v>1345</v>
       </c>
-      <c r="G151" s="2" t="s">
+      <c r="H151" s="2" t="s">
+        <v>753</v>
+      </c>
+      <c r="I151" s="2" t="s">
         <v>1346</v>
       </c>
-      <c r="H151" s="2" t="s">
-        <v>754</v>
-      </c>
-      <c r="I151" s="2" t="s">
+      <c r="J151" s="2" t="s">
         <v>1347</v>
       </c>
-      <c r="J151" s="2" t="s">
+      <c r="K151" s="2" t="s">
         <v>1348</v>
       </c>
-      <c r="K151" s="2" t="s">
+      <c r="L151" s="2" t="s">
         <v>1349</v>
       </c>
-      <c r="L151" s="2" t="s">
-        <v>1350</v>
-      </c>
       <c r="M151" s="2" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A152" s="3">
         <v>150</v>
       </c>
@@ -10832,40 +10832,40 @@
         <v>2020</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E152" s="2" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F152" s="2" t="s">
         <v>1398</v>
       </c>
-      <c r="F152" s="2" t="s">
+      <c r="G152" s="2" t="s">
         <v>1399</v>
       </c>
-      <c r="G152" s="2" t="s">
+      <c r="H152" s="2" t="s">
         <v>1400</v>
       </c>
-      <c r="H152" s="2" t="s">
+      <c r="I152" s="2" t="s">
         <v>1401</v>
       </c>
-      <c r="I152" s="2" t="s">
+      <c r="J152" s="2" t="s">
         <v>1402</v>
       </c>
-      <c r="J152" s="2" t="s">
+      <c r="K152" s="2" t="s">
         <v>1403</v>
       </c>
-      <c r="K152" s="2" t="s">
+      <c r="L152" s="2" t="s">
         <v>1404</v>
       </c>
-      <c r="L152" s="2" t="s">
+      <c r="M152" s="2" t="s">
         <v>1405</v>
       </c>
-      <c r="M152" s="2" t="s">
-        <v>1406</v>
-      </c>
-    </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="153" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A153" s="3">
         <v>151</v>
       </c>
@@ -10873,40 +10873,40 @@
         <v>2020</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="E153" s="2" t="s">
+        <v>1373</v>
+      </c>
+      <c r="F153" s="2" t="s">
         <v>1374</v>
       </c>
-      <c r="F153" s="2" t="s">
+      <c r="G153" s="2" t="s">
         <v>1375</v>
       </c>
-      <c r="G153" s="2" t="s">
+      <c r="H153" s="2" t="s">
         <v>1376</v>
       </c>
-      <c r="H153" s="2" t="s">
+      <c r="I153" s="2" t="s">
+        <v>1112</v>
+      </c>
+      <c r="J153" s="2" t="s">
         <v>1377</v>
       </c>
-      <c r="I153" s="2" t="s">
-        <v>1113</v>
-      </c>
-      <c r="J153" s="2" t="s">
+      <c r="K153" s="2" t="s">
         <v>1378</v>
       </c>
-      <c r="K153" s="2" t="s">
+      <c r="L153" s="2" t="s">
         <v>1379</v>
       </c>
-      <c r="L153" s="2" t="s">
-        <v>1380</v>
-      </c>
       <c r="M153" s="2" t="s">
-        <v>1126</v>
-      </c>
-    </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A154" s="3">
         <v>152</v>
       </c>
@@ -10914,40 +10914,40 @@
         <v>2020</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="E154" s="2" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F154" s="2" t="s">
         <v>1303</v>
       </c>
-      <c r="F154" s="2" t="s">
+      <c r="G154" s="2" t="s">
         <v>1304</v>
       </c>
-      <c r="G154" s="2" t="s">
+      <c r="H154" s="2" t="s">
         <v>1305</v>
       </c>
-      <c r="H154" s="2" t="s">
+      <c r="I154" s="2" t="s">
         <v>1306</v>
       </c>
-      <c r="I154" s="2" t="s">
+      <c r="J154" s="2" t="s">
         <v>1307</v>
       </c>
-      <c r="J154" s="2" t="s">
+      <c r="K154" s="2" t="s">
+        <v>981</v>
+      </c>
+      <c r="L154" s="2" t="s">
         <v>1308</v>
       </c>
-      <c r="K154" s="2" t="s">
-        <v>982</v>
-      </c>
-      <c r="L154" s="2" t="s">
-        <v>1309</v>
-      </c>
       <c r="M154" s="2" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="155" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A155" s="3">
         <v>153</v>
       </c>
@@ -10958,37 +10958,37 @@
         <v>120</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E155" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>499</v>
+      </c>
+      <c r="G155" s="2" t="s">
         <v>1224</v>
       </c>
-      <c r="F155" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="G155" s="2" t="s">
+      <c r="H155" s="2" t="s">
         <v>1225</v>
       </c>
-      <c r="H155" s="2" t="s">
+      <c r="I155" s="2" t="s">
         <v>1226</v>
       </c>
-      <c r="I155" s="2" t="s">
+      <c r="J155" s="2" t="s">
         <v>1227</v>
       </c>
-      <c r="J155" s="2" t="s">
+      <c r="K155" s="2" t="s">
         <v>1228</v>
       </c>
-      <c r="K155" s="2" t="s">
+      <c r="L155" s="2" t="s">
         <v>1229</v>
       </c>
-      <c r="L155" s="2" t="s">
+      <c r="M155" s="2" t="s">
         <v>1230</v>
       </c>
-      <c r="M155" s="2" t="s">
-        <v>1231</v>
-      </c>
-    </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="156" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A156" s="3">
         <v>154</v>
       </c>
@@ -10999,37 +10999,37 @@
         <v>71</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E156" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F156" s="2" t="s">
         <v>1232</v>
       </c>
-      <c r="F156" s="2" t="s">
+      <c r="G156" s="2" t="s">
         <v>1233</v>
       </c>
-      <c r="G156" s="2" t="s">
+      <c r="H156" s="2" t="s">
         <v>1234</v>
       </c>
-      <c r="H156" s="2" t="s">
+      <c r="I156" s="2" t="s">
         <v>1235</v>
       </c>
-      <c r="I156" s="2" t="s">
+      <c r="J156" s="2" t="s">
         <v>1236</v>
       </c>
-      <c r="J156" s="2" t="s">
+      <c r="K156" s="2" t="s">
         <v>1237</v>
       </c>
-      <c r="K156" s="2" t="s">
+      <c r="L156" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="L156" s="2" t="s">
-        <v>1239</v>
-      </c>
       <c r="M156" s="2" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A157" s="3">
         <v>155</v>
       </c>
@@ -11040,37 +11040,37 @@
         <v>81</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E157" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F157" s="2" t="s">
         <v>1208</v>
       </c>
-      <c r="F157" s="2" t="s">
+      <c r="G157" s="2" t="s">
         <v>1209</v>
       </c>
-      <c r="G157" s="2" t="s">
+      <c r="H157" s="2" t="s">
         <v>1210</v>
       </c>
-      <c r="H157" s="2" t="s">
+      <c r="I157" s="2" t="s">
+        <v>767</v>
+      </c>
+      <c r="J157" s="2" t="s">
         <v>1211</v>
       </c>
-      <c r="I157" s="2" t="s">
-        <v>768</v>
-      </c>
-      <c r="J157" s="2" t="s">
+      <c r="K157" s="2" t="s">
         <v>1212</v>
       </c>
-      <c r="K157" s="2" t="s">
+      <c r="L157" s="2" t="s">
         <v>1213</v>
       </c>
-      <c r="L157" s="2" t="s">
+      <c r="M157" s="2" t="s">
         <v>1214</v>
       </c>
-      <c r="M157" s="2" t="s">
-        <v>1215</v>
-      </c>
-    </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="158" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A158" s="3">
         <v>156</v>
       </c>
@@ -11081,37 +11081,37 @@
         <v>12</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="E158" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>1155</v>
       </c>
-      <c r="F158" s="2" t="s">
+      <c r="G158" s="2" t="s">
         <v>1156</v>
       </c>
-      <c r="G158" s="2" t="s">
+      <c r="H158" s="2" t="s">
         <v>1157</v>
       </c>
-      <c r="H158" s="2" t="s">
+      <c r="I158" s="2" t="s">
         <v>1158</v>
       </c>
-      <c r="I158" s="2" t="s">
+      <c r="J158" s="2" t="s">
         <v>1159</v>
-      </c>
-      <c r="J158" s="2" t="s">
-        <v>1160</v>
       </c>
       <c r="K158" s="2" t="s">
         <v>177</v>
       </c>
       <c r="L158" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="M158" s="2" t="s">
         <v>1161</v>
       </c>
-      <c r="M158" s="2" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="159" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A159" s="3">
         <v>157</v>
       </c>
@@ -11119,40 +11119,40 @@
         <v>2020</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E159" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="F159" s="2" t="s">
         <v>1389</v>
       </c>
-      <c r="F159" s="2" t="s">
+      <c r="G159" s="2" t="s">
         <v>1390</v>
       </c>
-      <c r="G159" s="2" t="s">
+      <c r="H159" s="2" t="s">
         <v>1391</v>
       </c>
-      <c r="H159" s="2" t="s">
+      <c r="I159" s="2" t="s">
         <v>1392</v>
       </c>
-      <c r="I159" s="2" t="s">
+      <c r="J159" s="2" t="s">
         <v>1393</v>
       </c>
-      <c r="J159" s="2" t="s">
+      <c r="K159" s="2" t="s">
         <v>1394</v>
       </c>
-      <c r="K159" s="2" t="s">
+      <c r="L159" s="2" t="s">
         <v>1395</v>
       </c>
-      <c r="L159" s="2" t="s">
+      <c r="M159" s="2" t="s">
         <v>1396</v>
       </c>
-      <c r="M159" s="2" t="s">
-        <v>1397</v>
-      </c>
-    </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    </row>
+    <row r="160" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A160" s="3">
         <v>158</v>
       </c>
@@ -11163,34 +11163,34 @@
         <v>110</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="E160" s="2" t="s">
+        <v>1247</v>
+      </c>
+      <c r="F160" s="2" t="s">
         <v>1248</v>
       </c>
-      <c r="F160" s="2" t="s">
+      <c r="G160" s="2" t="s">
         <v>1249</v>
       </c>
-      <c r="G160" s="2" t="s">
+      <c r="H160" s="2" t="s">
         <v>1250</v>
       </c>
-      <c r="H160" s="2" t="s">
+      <c r="I160" s="2" t="s">
         <v>1251</v>
       </c>
-      <c r="I160" s="2" t="s">
+      <c r="J160" s="2" t="s">
         <v>1252</v>
       </c>
-      <c r="J160" s="2" t="s">
+      <c r="K160" s="2" t="s">
         <v>1253</v>
       </c>
-      <c r="K160" s="2" t="s">
+      <c r="L160" s="2" t="s">
         <v>1254</v>
       </c>
-      <c r="L160" s="2" t="s">
+      <c r="M160" s="2" t="s">
         <v>1255</v>
-      </c>
-      <c r="M160" s="2" t="s">
-        <v>1256</v>
       </c>
     </row>
   </sheetData>
